--- a/data/选手名单7.27(最终版）.xlsx
+++ b/data/选手名单7.27(最终版）.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomla\Documents\GitHub\karate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E15D16-73C8-49B7-95E1-41F6E8C9495D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C650EA20-6052-4C5B-A602-72E8A1A42D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="10368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$H$297</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$E$1:$I$297</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="881">
   <si>
     <r>
       <rPr>
@@ -8839,6 +8839,10 @@
   </si>
   <si>
     <t>U9初级组男子个人型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赢的次数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -8853,7 +8857,7 @@
     <numFmt numFmtId="179" formatCode="\ @"/>
     <numFmt numFmtId="180" formatCode="\ \ \ @"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8890,6 +8894,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -8899,7 +8910,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -8922,11 +8933,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8960,13 +9012,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9244,10 +9305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H297"/>
+  <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="154" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8"/>
@@ -9255,52 +9316,57 @@
     <col min="1" max="1" width="14.59765625" customWidth="1"/>
     <col min="2" max="2" width="9.19921875" customWidth="1"/>
     <col min="3" max="3" width="3.69921875" customWidth="1"/>
-    <col min="4" max="4" width="16.09765625" customWidth="1"/>
-    <col min="5" max="5" width="7.19921875" customWidth="1"/>
-    <col min="6" max="6" width="16.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12.19921875" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.7" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:9" ht="17.7" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="21" customHeight="1">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" customHeight="1">
       <c r="A2" s="12"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="16" t="s">
+        <v>880</v>
+      </c>
       <c r="E2" s="12"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
+    <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -9310,19 +9376,22 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>35.5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -9332,19 +9401,22 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>43</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -9354,19 +9426,22 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="14">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>27.5</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -9376,59 +9451,68 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="14">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>24</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1">
+      <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="14">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1">
+    <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14">
+        <v>0</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
+    <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -9438,19 +9522,22 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -9460,17 +9547,20 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="14">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -9480,21 +9570,24 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="14">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>76.7</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4"/>
+      <c r="I11" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1">
+    <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -9504,21 +9597,24 @@
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="14">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>35.700000000000003</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="4"/>
+      <c r="I12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
+    <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -9528,19 +9624,22 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="14">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>45</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -9550,21 +9649,24 @@
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
+    <row r="15" spans="1:9" ht="15" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -9574,19 +9676,22 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>49.5</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1">
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -9596,19 +9701,22 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="14">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -9618,19 +9726,22 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="14">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>30.9</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1">
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -9640,17 +9751,20 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="14">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -9660,19 +9774,22 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="5">
+      <c r="F19" s="5">
         <v>34</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1">
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="15" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -9682,21 +9799,24 @@
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4"/>
+      <c r="I20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
+    <row r="21" spans="1:9" ht="15" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -9706,19 +9826,22 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="14">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1">
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
@@ -9728,21 +9851,24 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1">
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>78</v>
       </c>
@@ -9752,19 +9878,22 @@
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="14">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="4"/>
+      <c r="I23" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1">
+    <row r="24" spans="1:9" ht="15" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>86</v>
       </c>
@@ -9774,19 +9903,22 @@
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="14">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1">
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>86</v>
       </c>
@@ -9796,21 +9928,24 @@
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="14">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>86</v>
       </c>
@@ -9820,19 +9955,22 @@
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="14">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>86</v>
       </c>
@@ -9842,21 +9980,24 @@
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="14">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1">
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -9866,19 +10007,22 @@
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="14">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1">
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>86</v>
       </c>
@@ -9888,21 +10032,24 @@
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="14">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="4"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1">
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>86</v>
       </c>
@@ -9912,19 +10059,22 @@
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="14">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1">
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>86</v>
       </c>
@@ -9934,21 +10084,24 @@
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="14">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1">
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>86</v>
       </c>
@@ -9958,19 +10111,22 @@
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="14">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1">
+      <c r="I32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" ht="15" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -9980,21 +10136,24 @@
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="14">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1">
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>86</v>
       </c>
@@ -10004,19 +10163,22 @@
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="14">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1">
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>86</v>
       </c>
@@ -10026,21 +10188,24 @@
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="14">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="4"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1">
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="15" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -10050,19 +10215,22 @@
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="14">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4"/>
+      <c r="H36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1">
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="1:9" ht="15" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -10072,19 +10240,22 @@
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="14">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-    </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1">
+      <c r="I37" s="4"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -10094,19 +10265,22 @@
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="14">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:8" ht="15" customHeight="1">
+      <c r="I38" s="4"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -10116,19 +10290,22 @@
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="14">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-    </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1">
+      <c r="I39" s="4"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>148</v>
       </c>
@@ -10138,23 +10315,26 @@
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="14">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="3">
+      <c r="F40" s="3">
         <v>44.9</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" customHeight="1">
+    <row r="41" spans="1:9" ht="15" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>148</v>
       </c>
@@ -10164,23 +10344,26 @@
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="14">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="5">
+      <c r="F41" s="5">
         <v>84</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1">
+    <row r="42" spans="1:9" ht="15" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>148</v>
       </c>
@@ -10190,23 +10373,26 @@
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="14">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>49.9</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1">
+    <row r="43" spans="1:9" ht="15" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>148</v>
       </c>
@@ -10216,23 +10402,26 @@
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="14">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="5">
+      <c r="F43" s="5">
         <v>31</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" customHeight="1">
+    <row r="44" spans="1:9" ht="15" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>148</v>
       </c>
@@ -10242,19 +10431,22 @@
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="14">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="5">
+      <c r="F44" s="5">
         <v>48</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" customHeight="1">
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>148</v>
       </c>
@@ -10264,21 +10456,24 @@
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="14">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="5">
+      <c r="F45" s="5">
         <v>49</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="4"/>
+      <c r="I45" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1">
+    <row r="46" spans="1:9" ht="15" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>148</v>
       </c>
@@ -10288,19 +10483,22 @@
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="14">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5">
         <v>44</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" customHeight="1">
+      <c r="I46" s="4"/>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>148</v>
       </c>
@@ -10310,21 +10508,24 @@
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="14">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5">
         <v>28</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="4"/>
+      <c r="I47" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15.45" customHeight="1">
+    <row r="48" spans="1:9" ht="15.45" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>148</v>
       </c>
@@ -10334,23 +10535,26 @@
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="14">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="5">
+      <c r="F48" s="5">
         <v>71</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" customHeight="1">
+    <row r="49" spans="1:9" ht="15" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>148</v>
       </c>
@@ -10360,19 +10564,22 @@
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="14">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="5">
+      <c r="F49" s="5">
         <v>33</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" customHeight="1">
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>148</v>
       </c>
@@ -10382,19 +10589,22 @@
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="14">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E50" s="5">
+      <c r="F50" s="5">
         <v>33</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" customHeight="1">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>148</v>
       </c>
@@ -10404,23 +10614,26 @@
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="14">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E51" s="5">
+      <c r="F51" s="5">
         <v>23</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" customHeight="1">
+    <row r="52" spans="1:9" ht="15" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>148</v>
       </c>
@@ -10430,19 +10643,22 @@
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="14">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E52" s="5">
+      <c r="F52" s="5">
         <v>31</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-    </row>
-    <row r="53" spans="1:8" ht="15" customHeight="1">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>148</v>
       </c>
@@ -10452,19 +10668,22 @@
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="14">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E53" s="5">
+      <c r="F53" s="5">
         <v>25</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-    </row>
-    <row r="54" spans="1:8" ht="15" customHeight="1">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -10474,17 +10693,20 @@
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="14">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E54" s="4"/>
       <c r="F54" s="4"/>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H54" s="4"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" customHeight="1">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>148</v>
       </c>
@@ -10494,21 +10716,24 @@
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="14">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5">
         <v>38</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H55" s="4"/>
-    </row>
-    <row r="56" spans="1:8" ht="15" customHeight="1">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>148</v>
       </c>
@@ -10518,19 +10743,22 @@
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="14">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5">
         <v>46</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-    </row>
-    <row r="57" spans="1:8" ht="15" customHeight="1">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>148</v>
       </c>
@@ -10540,21 +10768,24 @@
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5">
         <v>27</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H57" s="4"/>
-    </row>
-    <row r="58" spans="1:8" ht="15" customHeight="1">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
@@ -10564,21 +10795,24 @@
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="14">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>23.3</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H58" s="4"/>
-    </row>
-    <row r="59" spans="1:8" ht="15" customHeight="1">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
@@ -10588,21 +10822,24 @@
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="14">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>23.2</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H59" s="4"/>
-    </row>
-    <row r="60" spans="1:8" ht="15" customHeight="1">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
@@ -10612,21 +10849,24 @@
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="14">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5">
         <v>26</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H60" s="4"/>
-    </row>
-    <row r="61" spans="1:8" ht="15" customHeight="1">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>148</v>
       </c>
@@ -10636,21 +10876,24 @@
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="14">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>19.5</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H61" s="4"/>
-    </row>
-    <row r="62" spans="1:8" ht="15" customHeight="1">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>148</v>
       </c>
@@ -10660,21 +10903,24 @@
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="14">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5">
         <v>38</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H62" s="4"/>
-    </row>
-    <row r="63" spans="1:8" ht="15" customHeight="1">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>148</v>
       </c>
@@ -10684,23 +10930,26 @@
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="14">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5">
         <v>30</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" customHeight="1">
+    <row r="64" spans="1:9" ht="15" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -10710,21 +10959,24 @@
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="14">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E64" s="3">
+      <c r="F64" s="3">
         <v>41.4</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H64" s="4"/>
-    </row>
-    <row r="65" spans="1:8" ht="15" customHeight="1">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>148</v>
       </c>
@@ -10734,21 +10986,24 @@
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="14">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5">
         <v>25</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H65" s="4"/>
-    </row>
-    <row r="66" spans="1:8" ht="15" customHeight="1">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -10758,19 +11013,22 @@
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="14">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-    </row>
-    <row r="67" spans="1:8" ht="15" customHeight="1">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>148</v>
       </c>
@@ -10780,19 +11038,22 @@
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="14">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5">
         <v>28</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" customHeight="1">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>148</v>
       </c>
@@ -10802,21 +11063,24 @@
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="14">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5">
         <v>41</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" customHeight="1">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>148</v>
       </c>
@@ -10826,23 +11090,26 @@
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="14">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E69" s="5">
+      <c r="F69" s="5">
         <v>30</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" customHeight="1">
+    <row r="70" spans="1:9" ht="15" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>148</v>
       </c>
@@ -10852,19 +11119,22 @@
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="14">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5">
         <v>55</v>
       </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="4"/>
+      <c r="H70" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" customHeight="1">
+      <c r="I70" s="4"/>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>148</v>
       </c>
@@ -10874,19 +11144,22 @@
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="14">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5">
         <v>78</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" customHeight="1">
+      <c r="I71" s="4"/>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>148</v>
       </c>
@@ -10896,19 +11169,22 @@
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="14">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E72" s="5">
+      <c r="F72" s="5">
         <v>73</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" customHeight="1">
+      <c r="I72" s="4"/>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>148</v>
       </c>
@@ -10918,19 +11194,22 @@
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="14">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="3">
+      <c r="F73" s="3">
         <v>87.6</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" customHeight="1">
+      <c r="I73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>148</v>
       </c>
@@ -10940,17 +11219,20 @@
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="14">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E74" s="4"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="4"/>
+      <c r="H74" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H74" s="4"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" customHeight="1">
+      <c r="I74" s="4"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>148</v>
       </c>
@@ -10960,19 +11242,22 @@
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="14">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5">
         <v>54</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1">
+      <c r="I75" s="4"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>250</v>
       </c>
@@ -10982,19 +11267,22 @@
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="14">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="F76" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" customHeight="1">
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>250</v>
       </c>
@@ -11004,19 +11292,22 @@
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-    </row>
-    <row r="78" spans="1:8" ht="15" customHeight="1">
+      <c r="I77" s="4"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>250</v>
       </c>
@@ -11026,19 +11317,22 @@
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="14">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-    </row>
-    <row r="79" spans="1:8" ht="15" customHeight="1">
+      <c r="I78" s="4"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1">
       <c r="A79" s="2" t="s">
         <v>250</v>
       </c>
@@ -11048,19 +11342,22 @@
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="14">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="F79" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-    </row>
-    <row r="80" spans="1:8" ht="15" customHeight="1">
+      <c r="I79" s="4"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>250</v>
       </c>
@@ -11070,19 +11367,22 @@
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="14">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="F80" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="4"/>
+      <c r="H80" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H80" s="4"/>
-    </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1">
+      <c r="I80" s="4"/>
+    </row>
+    <row r="81" spans="1:9" ht="15" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>250</v>
       </c>
@@ -11092,19 +11392,22 @@
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="14">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="F81" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="4"/>
+      <c r="H81" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H81" s="4"/>
-    </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1">
+      <c r="I81" s="4"/>
+    </row>
+    <row r="82" spans="1:9" ht="15" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>250</v>
       </c>
@@ -11114,19 +11417,22 @@
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="14">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="F82" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="4"/>
+      <c r="H82" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H82" s="4"/>
-    </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1">
+      <c r="I82" s="4"/>
+    </row>
+    <row r="83" spans="1:9" ht="15" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>250</v>
       </c>
@@ -11136,19 +11442,22 @@
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="14">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="4"/>
+      <c r="H83" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H83" s="4"/>
-    </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1">
+      <c r="I83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" ht="15" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>278</v>
       </c>
@@ -11158,21 +11467,24 @@
       <c r="C84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="14">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H84" s="4"/>
-    </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1">
+      <c r="I84" s="4"/>
+    </row>
+    <row r="85" spans="1:9" ht="15" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>278</v>
       </c>
@@ -11182,21 +11494,24 @@
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="14">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5">
         <v>66</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H85" s="4"/>
-    </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1">
+      <c r="I85" s="4"/>
+    </row>
+    <row r="86" spans="1:9" ht="15" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>278</v>
       </c>
@@ -11206,19 +11521,22 @@
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="14">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="F86" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-    </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1">
+      <c r="I86" s="4"/>
+    </row>
+    <row r="87" spans="1:9" ht="15" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>289</v>
       </c>
@@ -11228,19 +11546,22 @@
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="14">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-    </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1">
+      <c r="I87" s="4"/>
+    </row>
+    <row r="88" spans="1:9" ht="15" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>289</v>
       </c>
@@ -11250,21 +11571,24 @@
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="14">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="F88" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H88" s="4"/>
-    </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1">
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" ht="15" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>289</v>
       </c>
@@ -11274,21 +11598,24 @@
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="14">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H89" s="4"/>
-    </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1">
+      <c r="I89" s="4"/>
+    </row>
+    <row r="90" spans="1:9" ht="15" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>289</v>
       </c>
@@ -11298,21 +11625,24 @@
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="F90" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H90" s="4"/>
-    </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1">
+      <c r="I90" s="4"/>
+    </row>
+    <row r="91" spans="1:9" ht="15" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>289</v>
       </c>
@@ -11322,21 +11652,24 @@
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="14">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H91" s="4"/>
-    </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1">
+      <c r="I91" s="4"/>
+    </row>
+    <row r="92" spans="1:9" ht="15" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>308</v>
       </c>
@@ -11346,21 +11679,24 @@
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="14">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="H92" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H92" s="4"/>
-    </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1">
+      <c r="I92" s="4"/>
+    </row>
+    <row r="93" spans="1:9" ht="15" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>308</v>
       </c>
@@ -11370,21 +11706,24 @@
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="14">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H93" s="4"/>
-    </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1">
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" ht="15" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>308</v>
       </c>
@@ -11394,21 +11733,24 @@
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="14">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H94" s="4"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.45" customHeight="1">
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.45" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>321</v>
       </c>
@@ -11418,23 +11760,26 @@
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="14">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1">
+    <row r="96" spans="1:9" ht="15" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>321</v>
       </c>
@@ -11444,23 +11789,26 @@
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="14">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" customHeight="1">
+    <row r="97" spans="1:9" ht="15" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>321</v>
       </c>
@@ -11470,23 +11818,26 @@
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="14">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" customHeight="1">
+    <row r="98" spans="1:9" ht="15" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>321</v>
       </c>
@@ -11496,23 +11847,26 @@
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="14">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" customHeight="1">
+    <row r="99" spans="1:9" ht="15" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>321</v>
       </c>
@@ -11522,23 +11876,26 @@
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="14">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" customHeight="1">
+    <row r="100" spans="1:9" ht="15" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>321</v>
       </c>
@@ -11548,23 +11905,26 @@
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="14">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" customHeight="1">
+    <row r="101" spans="1:9" ht="15" customHeight="1">
       <c r="A101" s="2" t="s">
         <v>321</v>
       </c>
@@ -11574,21 +11934,24 @@
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="14">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="H101" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H101" s="4"/>
-    </row>
-    <row r="102" spans="1:8" ht="15" customHeight="1">
+      <c r="I101" s="4"/>
+    </row>
+    <row r="102" spans="1:9" ht="15" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>321</v>
       </c>
@@ -11598,21 +11961,24 @@
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="14">
+        <v>0</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H102" s="4"/>
-    </row>
-    <row r="103" spans="1:8" ht="15" customHeight="1">
+      <c r="I102" s="4"/>
+    </row>
+    <row r="103" spans="1:9" ht="15" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>321</v>
       </c>
@@ -11622,21 +11988,24 @@
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="14">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H103" s="4"/>
-    </row>
-    <row r="104" spans="1:8" ht="15" customHeight="1">
+      <c r="I103" s="4"/>
+    </row>
+    <row r="104" spans="1:9" ht="15" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>321</v>
       </c>
@@ -11646,21 +12015,24 @@
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="14">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="F104" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H104" s="4"/>
-    </row>
-    <row r="105" spans="1:8" ht="15" customHeight="1">
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" spans="1:9" ht="15" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>321</v>
       </c>
@@ -11670,21 +12042,24 @@
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="14">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="F105" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H105" s="4"/>
-    </row>
-    <row r="106" spans="1:8" ht="15" customHeight="1">
+      <c r="I105" s="4"/>
+    </row>
+    <row r="106" spans="1:9" ht="15" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>321</v>
       </c>
@@ -11694,23 +12069,26 @@
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="14">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="F106" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" customHeight="1">
+    <row r="107" spans="1:9" ht="15" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>368</v>
       </c>
@@ -11720,21 +12098,24 @@
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="14">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H107" s="4"/>
-    </row>
-    <row r="108" spans="1:8" ht="15" customHeight="1">
+      <c r="I107" s="4"/>
+    </row>
+    <row r="108" spans="1:9" ht="15" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>368</v>
       </c>
@@ -11744,19 +12125,22 @@
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="14">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F108" s="4"/>
       <c r="G108" s="4"/>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="4"/>
+      <c r="I108" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" customHeight="1">
+    <row r="109" spans="1:9" ht="15" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>368</v>
       </c>
@@ -11766,21 +12150,24 @@
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="14">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="F109" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="G109" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G109" s="2" t="s">
+      <c r="H109" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H109" s="4"/>
-    </row>
-    <row r="110" spans="1:8" ht="15" customHeight="1">
+      <c r="I109" s="4"/>
+    </row>
+    <row r="110" spans="1:9" ht="15" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>368</v>
       </c>
@@ -11790,19 +12177,22 @@
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="14">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F110" s="4"/>
-      <c r="G110" s="2" t="s">
+      <c r="G110" s="4"/>
+      <c r="H110" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H110" s="4"/>
-    </row>
-    <row r="111" spans="1:8" ht="15" customHeight="1">
+      <c r="I110" s="4"/>
+    </row>
+    <row r="111" spans="1:9" ht="15" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>382</v>
       </c>
@@ -11812,19 +12202,22 @@
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="14">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="E111" s="5">
+      <c r="F111" s="5">
         <v>67</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-    </row>
-    <row r="112" spans="1:8" ht="15" customHeight="1">
+      <c r="I111" s="4"/>
+    </row>
+    <row r="112" spans="1:9" ht="15" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>382</v>
       </c>
@@ -11834,19 +12227,22 @@
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="14">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="E112" s="5">
+      <c r="F112" s="5">
         <v>60</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-    </row>
-    <row r="113" spans="1:8" ht="15" customHeight="1">
+      <c r="I112" s="4"/>
+    </row>
+    <row r="113" spans="1:9" ht="15" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>382</v>
       </c>
@@ -11856,19 +12252,22 @@
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="14">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="E113" s="3">
+      <c r="F113" s="3">
         <v>61.5</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-    </row>
-    <row r="114" spans="1:8" ht="15" customHeight="1">
+      <c r="I113" s="4"/>
+    </row>
+    <row r="114" spans="1:9" ht="15" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>382</v>
       </c>
@@ -11878,19 +12277,22 @@
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="14">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="E114" s="3">
+      <c r="F114" s="3">
         <v>66.5</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-    </row>
-    <row r="115" spans="1:8" ht="15" customHeight="1">
+      <c r="I114" s="4"/>
+    </row>
+    <row r="115" spans="1:9" ht="15" customHeight="1">
       <c r="A115" s="2" t="s">
         <v>394</v>
       </c>
@@ -11900,19 +12302,22 @@
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="14">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-    </row>
-    <row r="116" spans="1:8" ht="15" customHeight="1">
+      <c r="I115" s="4"/>
+    </row>
+    <row r="116" spans="1:9" ht="15" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>394</v>
       </c>
@@ -11922,19 +12327,22 @@
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="14">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="F116" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-    </row>
-    <row r="117" spans="1:8" ht="15" customHeight="1">
+      <c r="I116" s="4"/>
+    </row>
+    <row r="117" spans="1:9" ht="15" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>394</v>
       </c>
@@ -11944,19 +12352,22 @@
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="14">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G117" s="4"/>
       <c r="H117" s="4"/>
-    </row>
-    <row r="118" spans="1:8" ht="15" customHeight="1">
+      <c r="I117" s="4"/>
+    </row>
+    <row r="118" spans="1:9" ht="15" customHeight="1">
       <c r="A118" s="2" t="s">
         <v>394</v>
       </c>
@@ -11966,19 +12377,22 @@
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="14">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="4"/>
+      <c r="I118" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" customHeight="1">
+    <row r="119" spans="1:9" ht="15" customHeight="1">
       <c r="A119" s="2" t="s">
         <v>394</v>
       </c>
@@ -11988,19 +12402,22 @@
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="14">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="F119" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-    </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1">
+      <c r="I119" s="4"/>
+    </row>
+    <row r="120" spans="1:9" ht="15" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>394</v>
       </c>
@@ -12010,19 +12427,22 @@
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="14">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="F120" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-    </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1">
+      <c r="I120" s="4"/>
+    </row>
+    <row r="121" spans="1:9" ht="15" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>394</v>
       </c>
@@ -12032,19 +12452,22 @@
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="14">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="F121" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G121" s="4"/>
       <c r="H121" s="4"/>
-    </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1">
+      <c r="I121" s="4"/>
+    </row>
+    <row r="122" spans="1:9" ht="15" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>394</v>
       </c>
@@ -12054,19 +12477,22 @@
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="14">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1">
+      <c r="I122" s="4"/>
+    </row>
+    <row r="123" spans="1:9" ht="15" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>394</v>
       </c>
@@ -12076,19 +12502,22 @@
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="14">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="F123" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1">
+      <c r="I123" s="4"/>
+    </row>
+    <row r="124" spans="1:9" ht="15" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>394</v>
       </c>
@@ -12098,19 +12527,22 @@
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="14">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="F124" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-    </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1">
+      <c r="I124" s="4"/>
+    </row>
+    <row r="125" spans="1:9" ht="15" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>394</v>
       </c>
@@ -12120,19 +12552,22 @@
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="14">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="F125" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G125" s="4"/>
       <c r="H125" s="4"/>
-    </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1">
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" spans="1:9" ht="15" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>394</v>
       </c>
@@ -12142,19 +12577,22 @@
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="14">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="F126" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G126" s="4"/>
       <c r="H126" s="4"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1">
+      <c r="I126" s="4"/>
+    </row>
+    <row r="127" spans="1:9" ht="15" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>430</v>
       </c>
@@ -12164,19 +12602,22 @@
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="14">
+        <v>0</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="F127" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G127" s="4"/>
       <c r="H127" s="4"/>
-    </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1">
+      <c r="I127" s="4"/>
+    </row>
+    <row r="128" spans="1:9" ht="15" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>430</v>
       </c>
@@ -12186,19 +12627,22 @@
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="14">
+        <v>0</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E128" s="5">
+      <c r="F128" s="5">
         <v>75</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G128" s="4"/>
       <c r="H128" s="4"/>
-    </row>
-    <row r="129" spans="1:8" ht="15" customHeight="1">
+      <c r="I128" s="4"/>
+    </row>
+    <row r="129" spans="1:9" ht="15" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>430</v>
       </c>
@@ -12208,19 +12652,22 @@
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="14">
+        <v>0</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E129" s="3">
+      <c r="F129" s="3">
         <v>46.8</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G129" s="4"/>
       <c r="H129" s="4"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" customHeight="1">
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" spans="1:9" ht="15" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>430</v>
       </c>
@@ -12230,19 +12677,22 @@
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="14">
+        <v>0</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E130" s="3">
+      <c r="F130" s="3">
         <v>56.5</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
-    </row>
-    <row r="131" spans="1:8" ht="15" customHeight="1">
+      <c r="I130" s="4"/>
+    </row>
+    <row r="131" spans="1:9" ht="15" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>430</v>
       </c>
@@ -12252,19 +12702,22 @@
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="14">
+        <v>0</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E131" s="5">
+      <c r="F131" s="5">
         <v>28</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G131" s="4"/>
       <c r="H131" s="4"/>
-    </row>
-    <row r="132" spans="1:8" ht="15" customHeight="1">
+      <c r="I131" s="4"/>
+    </row>
+    <row r="132" spans="1:9" ht="15" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>430</v>
       </c>
@@ -12274,19 +12727,22 @@
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="14">
+        <v>0</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E132" s="5">
+      <c r="F132" s="5">
         <v>20</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
-    </row>
-    <row r="133" spans="1:8" ht="15" customHeight="1">
+      <c r="I132" s="4"/>
+    </row>
+    <row r="133" spans="1:9" ht="15" customHeight="1">
       <c r="A133" s="2" t="s">
         <v>430</v>
       </c>
@@ -12296,19 +12752,22 @@
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="14">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E133" s="5">
+      <c r="F133" s="5">
         <v>17</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G133" s="4"/>
       <c r="H133" s="4"/>
-    </row>
-    <row r="134" spans="1:8" ht="15" customHeight="1">
+      <c r="I133" s="4"/>
+    </row>
+    <row r="134" spans="1:9" ht="15" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>430</v>
       </c>
@@ -12318,19 +12777,22 @@
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="14">
+        <v>0</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E134" s="7">
+      <c r="F134" s="7">
         <v>23.65</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G134" s="4"/>
       <c r="H134" s="4"/>
-    </row>
-    <row r="135" spans="1:8" ht="15" customHeight="1">
+      <c r="I134" s="4"/>
+    </row>
+    <row r="135" spans="1:9" ht="15" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>430</v>
       </c>
@@ -12340,19 +12802,22 @@
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="14">
+        <v>0</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E135" s="3">
+      <c r="F135" s="3">
         <v>35.5</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
-    </row>
-    <row r="136" spans="1:8" ht="15" customHeight="1">
+      <c r="I135" s="4"/>
+    </row>
+    <row r="136" spans="1:9" ht="15" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>430</v>
       </c>
@@ -12362,19 +12827,22 @@
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="14">
+        <v>0</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E136" s="3">
+      <c r="F136" s="3">
         <v>16.3</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="G136" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G136" s="4"/>
       <c r="H136" s="4"/>
-    </row>
-    <row r="137" spans="1:8" ht="15" customHeight="1">
+      <c r="I136" s="4"/>
+    </row>
+    <row r="137" spans="1:9" ht="15" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>430</v>
       </c>
@@ -12384,19 +12852,22 @@
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="14">
+        <v>0</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E137" s="3">
+      <c r="F137" s="3">
         <v>26.5</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G137" s="4"/>
       <c r="H137" s="4"/>
-    </row>
-    <row r="138" spans="1:8" ht="15" customHeight="1">
+      <c r="I137" s="4"/>
+    </row>
+    <row r="138" spans="1:9" ht="15" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>430</v>
       </c>
@@ -12406,19 +12877,22 @@
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="14">
+        <v>0</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E138" s="3">
+      <c r="F138" s="3">
         <v>59.5</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
-    </row>
-    <row r="139" spans="1:8" ht="15" customHeight="1">
+      <c r="I138" s="4"/>
+    </row>
+    <row r="139" spans="1:9" ht="15" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>430</v>
       </c>
@@ -12428,19 +12902,22 @@
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="14">
+        <v>0</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E139" s="3">
+      <c r="F139" s="3">
         <v>42.5</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
-    </row>
-    <row r="140" spans="1:8" ht="15" customHeight="1">
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="1:9" ht="15" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>430</v>
       </c>
@@ -12450,19 +12927,22 @@
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="14">
+        <v>0</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E140" s="3">
+      <c r="F140" s="3">
         <v>28.5</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G140" s="4"/>
       <c r="H140" s="4"/>
-    </row>
-    <row r="141" spans="1:8" ht="15" customHeight="1">
+      <c r="I140" s="4"/>
+    </row>
+    <row r="141" spans="1:9" ht="15" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>462</v>
       </c>
@@ -12472,23 +12952,26 @@
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="14">
+        <v>0</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="F141" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="F141" s="2" t="s">
+      <c r="G141" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="15.45" customHeight="1">
+    <row r="142" spans="1:9" ht="15.45" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>466</v>
       </c>
@@ -12498,19 +12981,22 @@
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="14">
+        <v>0</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="F142" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G142" s="4"/>
       <c r="H142" s="4"/>
-    </row>
-    <row r="143" spans="1:8" ht="15" customHeight="1">
+      <c r="I142" s="4"/>
+    </row>
+    <row r="143" spans="1:9" ht="15" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>466</v>
       </c>
@@ -12520,21 +13006,24 @@
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="14">
+        <v>0</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="F143" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="H143" s="4"/>
-    </row>
-    <row r="144" spans="1:8" ht="15" customHeight="1">
+      <c r="I143" s="4"/>
+    </row>
+    <row r="144" spans="1:9" ht="15" customHeight="1">
       <c r="A144" s="2" t="s">
         <v>466</v>
       </c>
@@ -12544,21 +13033,24 @@
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="14">
+        <v>0</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="F144" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H144" s="4"/>
-    </row>
-    <row r="145" spans="1:8" ht="15" customHeight="1">
+      <c r="I144" s="4"/>
+    </row>
+    <row r="145" spans="1:9" ht="15" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>466</v>
       </c>
@@ -12568,19 +13060,22 @@
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="14">
+        <v>0</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="F145" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
-    </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1">
+      <c r="I145" s="4"/>
+    </row>
+    <row r="146" spans="1:9" ht="15" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>466</v>
       </c>
@@ -12590,21 +13085,24 @@
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="14">
+        <v>0</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="F146" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H146" s="4"/>
-    </row>
-    <row r="147" spans="1:8" ht="15" customHeight="1">
+      <c r="I146" s="4"/>
+    </row>
+    <row r="147" spans="1:9" ht="15" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>466</v>
       </c>
@@ -12614,19 +13112,22 @@
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="14">
+        <v>0</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="F147" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
-    </row>
-    <row r="148" spans="1:8" ht="15" customHeight="1">
+      <c r="I147" s="4"/>
+    </row>
+    <row r="148" spans="1:9" ht="15" customHeight="1">
       <c r="A148" s="2" t="s">
         <v>488</v>
       </c>
@@ -12636,23 +13137,26 @@
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="14">
+        <v>0</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="F148" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="I148" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1">
+    <row r="149" spans="1:9" ht="15" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>488</v>
       </c>
@@ -12662,23 +13166,26 @@
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="14">
+        <v>0</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="F149" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="H149" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="15" customHeight="1">
+    <row r="150" spans="1:9" ht="15" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>488</v>
       </c>
@@ -12688,21 +13195,24 @@
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="14">
+        <v>0</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="F150" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G150" s="2" t="s">
+      <c r="H150" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H150" s="4"/>
-    </row>
-    <row r="151" spans="1:8" ht="15" customHeight="1">
+      <c r="I150" s="4"/>
+    </row>
+    <row r="151" spans="1:9" ht="15" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>488</v>
       </c>
@@ -12712,23 +13222,26 @@
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="14">
+        <v>0</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H151" s="2" t="s">
+      <c r="I151" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="15" customHeight="1">
+    <row r="152" spans="1:9" ht="15" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>488</v>
       </c>
@@ -12738,21 +13251,24 @@
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="14">
+        <v>0</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="E152" s="2" t="s">
+      <c r="F152" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H152" s="4"/>
-    </row>
-    <row r="153" spans="1:8" ht="15" customHeight="1">
+      <c r="I152" s="4"/>
+    </row>
+    <row r="153" spans="1:9" ht="15" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>488</v>
       </c>
@@ -12762,23 +13278,26 @@
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="14">
+        <v>0</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E153" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="I153" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="15" customHeight="1">
+    <row r="154" spans="1:9" ht="15" customHeight="1">
       <c r="A154" s="2" t="s">
         <v>488</v>
       </c>
@@ -12788,23 +13307,26 @@
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="14">
+        <v>0</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="F154" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="H154" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="15" customHeight="1">
+    <row r="155" spans="1:9" ht="15" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>488</v>
       </c>
@@ -12814,23 +13336,26 @@
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="14">
+        <v>0</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E155" s="2" t="s">
+      <c r="F155" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="F155" s="2" t="s">
+      <c r="G155" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G155" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="15" customHeight="1">
+    <row r="156" spans="1:9" ht="15" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>514</v>
       </c>
@@ -12840,19 +13365,22 @@
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="14">
+        <v>0</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="F156" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="2" t="s">
+      <c r="G156" s="4"/>
+      <c r="H156" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H156" s="4"/>
-    </row>
-    <row r="157" spans="1:8" ht="15" customHeight="1">
+      <c r="I156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" ht="15" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>514</v>
       </c>
@@ -12862,19 +13390,22 @@
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="14">
+        <v>0</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G157" s="4"/>
       <c r="H157" s="4"/>
-    </row>
-    <row r="158" spans="1:8" ht="15" customHeight="1">
+      <c r="I157" s="4"/>
+    </row>
+    <row r="158" spans="1:9" ht="15" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>514</v>
       </c>
@@ -12884,19 +13415,22 @@
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="14">
+        <v>0</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="F158" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G158" s="4"/>
       <c r="H158" s="4"/>
-    </row>
-    <row r="159" spans="1:8" ht="15" customHeight="1">
+      <c r="I158" s="4"/>
+    </row>
+    <row r="159" spans="1:9" ht="15" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>514</v>
       </c>
@@ -12906,19 +13440,22 @@
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="14">
+        <v>0</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="F159" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="G159" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G159" s="4"/>
       <c r="H159" s="4"/>
-    </row>
-    <row r="160" spans="1:8" ht="15" customHeight="1">
+      <c r="I159" s="4"/>
+    </row>
+    <row r="160" spans="1:9" ht="15" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>514</v>
       </c>
@@ -12928,21 +13465,24 @@
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="14">
+        <v>0</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="2" t="s">
+      <c r="G160" s="4"/>
+      <c r="H160" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="I160" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="15" customHeight="1">
+    <row r="161" spans="1:9" ht="15" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>514</v>
       </c>
@@ -12952,19 +13492,22 @@
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="14">
+        <v>0</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="F161" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="F161" s="4"/>
       <c r="G161" s="4"/>
-      <c r="H161" s="2" t="s">
+      <c r="H161" s="4"/>
+      <c r="I161" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="15" customHeight="1">
+    <row r="162" spans="1:9" ht="15" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>534</v>
       </c>
@@ -12974,21 +13517,24 @@
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="14">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="F162" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="G162" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H162" s="4"/>
-    </row>
-    <row r="163" spans="1:8" ht="15" customHeight="1">
+      <c r="I162" s="4"/>
+    </row>
+    <row r="163" spans="1:9" ht="15" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>534</v>
       </c>
@@ -12998,19 +13544,22 @@
       <c r="C163" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="14">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F163" s="2" t="s">
+      <c r="G163" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G163" s="4"/>
       <c r="H163" s="4"/>
-    </row>
-    <row r="164" spans="1:8" ht="15" customHeight="1">
+      <c r="I163" s="4"/>
+    </row>
+    <row r="164" spans="1:9" ht="15" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>534</v>
       </c>
@@ -13020,19 +13569,22 @@
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="14">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="F164" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F164" s="2" t="s">
+      <c r="G164" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G164" s="4"/>
       <c r="H164" s="4"/>
-    </row>
-    <row r="165" spans="1:8" ht="15" customHeight="1">
+      <c r="I164" s="4"/>
+    </row>
+    <row r="165" spans="1:9" ht="15" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>543</v>
       </c>
@@ -13042,21 +13594,24 @@
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="14">
+        <v>0</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E165" s="3">
+      <c r="F165" s="3">
         <v>17.8</v>
       </c>
-      <c r="F165" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G165" s="4"/>
-      <c r="H165" s="2" t="s">
+      <c r="H165" s="4"/>
+      <c r="I165" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="15" customHeight="1">
+    <row r="166" spans="1:9" ht="15" customHeight="1">
       <c r="A166" s="8" t="s">
         <v>546</v>
       </c>
@@ -13066,23 +13621,26 @@
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="14">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E166" s="3">
+      <c r="F166" s="3">
         <v>19.3</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="G166" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H166" s="2" t="s">
+      <c r="I166" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="15" customHeight="1">
+    <row r="167" spans="1:9" ht="15" customHeight="1">
       <c r="A167" s="8" t="s">
         <v>543</v>
       </c>
@@ -13092,23 +13650,26 @@
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="14">
+        <v>0</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E167" s="3">
+      <c r="F167" s="3">
         <v>56.8</v>
       </c>
-      <c r="F167" s="2" t="s">
+      <c r="G167" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H167" s="2" t="s">
+      <c r="I167" s="2" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="15" customHeight="1">
+    <row r="168" spans="1:9" ht="15" customHeight="1">
       <c r="A168" s="8" t="s">
         <v>543</v>
       </c>
@@ -13118,21 +13679,24 @@
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="14">
+        <v>0</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E168" s="3">
+      <c r="F168" s="3">
         <v>46.5</v>
       </c>
-      <c r="F168" s="2" t="s">
+      <c r="G168" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G168" s="2" t="s">
+      <c r="H168" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H168" s="4"/>
-    </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1">
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" spans="1:9" ht="15" customHeight="1">
       <c r="A169" s="8" t="s">
         <v>543</v>
       </c>
@@ -13142,21 +13706,24 @@
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="14">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="E169" s="3">
+      <c r="F169" s="3">
         <v>49.5</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="G169" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="H169" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H169" s="4"/>
-    </row>
-    <row r="170" spans="1:8" ht="15" customHeight="1">
+      <c r="I169" s="4"/>
+    </row>
+    <row r="170" spans="1:9" ht="15" customHeight="1">
       <c r="A170" s="8" t="s">
         <v>543</v>
       </c>
@@ -13166,21 +13733,24 @@
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="14">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E170" s="5">
+      <c r="F170" s="5">
         <v>63</v>
       </c>
-      <c r="F170" s="2" t="s">
+      <c r="G170" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G170" s="2" t="s">
+      <c r="H170" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H170" s="4"/>
-    </row>
-    <row r="171" spans="1:8" ht="15" customHeight="1">
+      <c r="I170" s="4"/>
+    </row>
+    <row r="171" spans="1:9" ht="15" customHeight="1">
       <c r="A171" s="8" t="s">
         <v>543</v>
       </c>
@@ -13190,21 +13760,24 @@
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="14">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E171" s="3">
+      <c r="F171" s="3">
         <v>23.7</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="G171" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="H171" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H171" s="4"/>
-    </row>
-    <row r="172" spans="1:8" ht="15" customHeight="1">
+      <c r="I171" s="4"/>
+    </row>
+    <row r="172" spans="1:9" ht="15" customHeight="1">
       <c r="A172" s="8" t="s">
         <v>543</v>
       </c>
@@ -13214,23 +13787,26 @@
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="14">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="F172" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="G172" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="H172" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H172" s="2" t="s">
+      <c r="I172" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="15" customHeight="1">
+    <row r="173" spans="1:9" ht="15" customHeight="1">
       <c r="A173" s="8" t="s">
         <v>543</v>
       </c>
@@ -13240,21 +13816,24 @@
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="14">
+        <v>0</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E173" s="5">
+      <c r="F173" s="5">
         <v>24</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="G173" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="H173" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H173" s="4"/>
-    </row>
-    <row r="174" spans="1:8" ht="15" customHeight="1">
+      <c r="I173" s="4"/>
+    </row>
+    <row r="174" spans="1:9" ht="15" customHeight="1">
       <c r="A174" s="8" t="s">
         <v>543</v>
       </c>
@@ -13264,19 +13843,22 @@
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="14">
+        <v>0</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E174" s="3">
+      <c r="F174" s="3">
         <v>59.5</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G174" s="4"/>
       <c r="H174" s="4"/>
-    </row>
-    <row r="175" spans="1:8" ht="15" customHeight="1">
+      <c r="I174" s="4"/>
+    </row>
+    <row r="175" spans="1:9" ht="15" customHeight="1">
       <c r="A175" s="8" t="s">
         <v>543</v>
       </c>
@@ -13286,19 +13868,22 @@
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="14">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E175" s="5">
+      <c r="F175" s="5">
         <v>60</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="G175" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G175" s="4"/>
       <c r="H175" s="4"/>
-    </row>
-    <row r="176" spans="1:8" ht="15" customHeight="1">
+      <c r="I175" s="4"/>
+    </row>
+    <row r="176" spans="1:9" ht="15" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>571</v>
       </c>
@@ -13308,19 +13893,22 @@
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="14">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E176" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="G176" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G176" s="4"/>
       <c r="H176" s="4"/>
-    </row>
-    <row r="177" spans="1:8" ht="15" customHeight="1">
+      <c r="I176" s="4"/>
+    </row>
+    <row r="177" spans="1:9" ht="15" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>571</v>
       </c>
@@ -13330,19 +13918,22 @@
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="14">
+        <v>0</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="F177" s="2" t="s">
+      <c r="G177" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="G177" s="4"/>
       <c r="H177" s="4"/>
-    </row>
-    <row r="178" spans="1:8" ht="15" customHeight="1">
+      <c r="I177" s="4"/>
+    </row>
+    <row r="178" spans="1:9" ht="15" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>571</v>
       </c>
@@ -13352,19 +13943,22 @@
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="14">
+        <v>0</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G178" s="4"/>
       <c r="H178" s="4"/>
-    </row>
-    <row r="179" spans="1:8" ht="15" customHeight="1">
+      <c r="I178" s="4"/>
+    </row>
+    <row r="179" spans="1:9" ht="15" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>581</v>
       </c>
@@ -13374,21 +13968,24 @@
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="14">
+        <v>0</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="G179" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G179" s="4"/>
-      <c r="H179" s="2" t="s">
+      <c r="H179" s="4"/>
+      <c r="I179" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="15" customHeight="1">
+    <row r="180" spans="1:9" ht="15" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>581</v>
       </c>
@@ -13398,19 +13995,22 @@
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="14">
+        <v>0</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G180" s="4"/>
       <c r="H180" s="4"/>
-    </row>
-    <row r="181" spans="1:8" ht="15" customHeight="1">
+      <c r="I180" s="4"/>
+    </row>
+    <row r="181" spans="1:9" ht="15" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>581</v>
       </c>
@@ -13420,19 +14020,22 @@
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="14">
+        <v>0</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="G181" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G181" s="4"/>
       <c r="H181" s="4"/>
-    </row>
-    <row r="182" spans="1:8" ht="15" customHeight="1">
+      <c r="I181" s="4"/>
+    </row>
+    <row r="182" spans="1:9" ht="15" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>581</v>
       </c>
@@ -13442,21 +14045,24 @@
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="14">
+        <v>0</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="F182" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="G182" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="G182" s="4"/>
-      <c r="H182" s="2" t="s">
+      <c r="H182" s="4"/>
+      <c r="I182" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="15" customHeight="1">
+    <row r="183" spans="1:9" ht="15" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>581</v>
       </c>
@@ -13466,19 +14072,22 @@
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="14">
+        <v>0</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="G183" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="G183" s="4"/>
       <c r="H183" s="4"/>
-    </row>
-    <row r="184" spans="1:8" ht="15" customHeight="1">
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" spans="1:9" ht="15" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>581</v>
       </c>
@@ -13488,19 +14097,22 @@
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="14">
+        <v>0</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="F184" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="G184" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="G184" s="4"/>
       <c r="H184" s="4"/>
-    </row>
-    <row r="185" spans="1:8" ht="15" customHeight="1">
+      <c r="I184" s="4"/>
+    </row>
+    <row r="185" spans="1:9" ht="15" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>581</v>
       </c>
@@ -13510,19 +14122,22 @@
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="14">
+        <v>0</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F185" s="2" t="s">
+      <c r="G185" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G185" s="4"/>
       <c r="H185" s="4"/>
-    </row>
-    <row r="186" spans="1:8" ht="15" customHeight="1">
+      <c r="I185" s="4"/>
+    </row>
+    <row r="186" spans="1:9" ht="15" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>581</v>
       </c>
@@ -13532,19 +14147,22 @@
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="14">
+        <v>0</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="E186" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F186" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G186" s="4"/>
       <c r="H186" s="4"/>
-    </row>
-    <row r="187" spans="1:8" ht="15" customHeight="1">
+      <c r="I186" s="4"/>
+    </row>
+    <row r="187" spans="1:9" ht="15" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>606</v>
       </c>
@@ -13554,21 +14172,24 @@
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="14">
+        <v>0</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F187" s="2" t="s">
+      <c r="G187" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G187" s="4"/>
-      <c r="H187" s="2" t="s">
+      <c r="H187" s="4"/>
+      <c r="I187" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="15" customHeight="1">
+    <row r="188" spans="1:9" ht="15" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>606</v>
       </c>
@@ -13578,21 +14199,24 @@
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="14">
+        <v>0</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="F188" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F188" s="2" t="s">
+      <c r="G188" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="H188" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H188" s="4"/>
-    </row>
-    <row r="189" spans="1:8" ht="15.45" customHeight="1">
+      <c r="I188" s="4"/>
+    </row>
+    <row r="189" spans="1:9" ht="15.45" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>606</v>
       </c>
@@ -13602,19 +14226,22 @@
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="14">
+        <v>0</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="F189" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="F189" s="2" t="s">
+      <c r="G189" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G189" s="4"/>
       <c r="H189" s="4"/>
-    </row>
-    <row r="190" spans="1:8" ht="15" customHeight="1">
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" spans="1:9" ht="15" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>606</v>
       </c>
@@ -13624,19 +14251,22 @@
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="14">
+        <v>0</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="F190" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F190" s="2" t="s">
+      <c r="G190" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G190" s="4"/>
       <c r="H190" s="4"/>
-    </row>
-    <row r="191" spans="1:8" ht="15" customHeight="1">
+      <c r="I190" s="4"/>
+    </row>
+    <row r="191" spans="1:9" ht="15" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>606</v>
       </c>
@@ -13646,21 +14276,24 @@
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="14">
+        <v>0</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="F191" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F191" s="2" t="s">
+      <c r="G191" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G191" s="2" t="s">
+      <c r="H191" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H191" s="4"/>
-    </row>
-    <row r="192" spans="1:8" ht="15" customHeight="1">
+      <c r="I191" s="4"/>
+    </row>
+    <row r="192" spans="1:9" ht="15" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>606</v>
       </c>
@@ -13670,19 +14303,22 @@
       <c r="C192" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="14">
+        <v>0</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="F192" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="F192" s="2" t="s">
+      <c r="G192" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G192" s="4"/>
       <c r="H192" s="4"/>
-    </row>
-    <row r="193" spans="1:8" ht="15" customHeight="1">
+      <c r="I192" s="4"/>
+    </row>
+    <row r="193" spans="1:9" ht="15" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>623</v>
       </c>
@@ -13692,21 +14328,24 @@
       <c r="C193" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="14">
+        <v>0</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="E193" s="2" t="s">
+      <c r="F193" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F193" s="2" t="s">
+      <c r="G193" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="G193" s="2" t="s">
+      <c r="H193" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H193" s="4"/>
-    </row>
-    <row r="194" spans="1:8" ht="15" customHeight="1">
+      <c r="I193" s="4"/>
+    </row>
+    <row r="194" spans="1:9" ht="15" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>626</v>
       </c>
@@ -13716,19 +14355,22 @@
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="14">
+        <v>0</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="F194" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="F194" s="2" t="s">
+      <c r="G194" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G194" s="4"/>
       <c r="H194" s="4"/>
-    </row>
-    <row r="195" spans="1:8" ht="15" customHeight="1">
+      <c r="I194" s="4"/>
+    </row>
+    <row r="195" spans="1:9" ht="15" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>630</v>
       </c>
@@ -13738,19 +14380,22 @@
       <c r="C195" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="14">
+        <v>0</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="F195" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F195" s="2" t="s">
+      <c r="G195" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G195" s="4"/>
       <c r="H195" s="4"/>
-    </row>
-    <row r="196" spans="1:8" ht="15" customHeight="1">
+      <c r="I195" s="4"/>
+    </row>
+    <row r="196" spans="1:9" ht="15" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>630</v>
       </c>
@@ -13760,19 +14405,22 @@
       <c r="C196" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="14">
+        <v>0</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="F196" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="G196" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G196" s="4"/>
       <c r="H196" s="4"/>
-    </row>
-    <row r="197" spans="1:8" ht="15" customHeight="1">
+      <c r="I196" s="4"/>
+    </row>
+    <row r="197" spans="1:9" ht="15" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>630</v>
       </c>
@@ -13782,19 +14430,22 @@
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="14">
+        <v>0</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="F197" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F197" s="2" t="s">
+      <c r="G197" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="G197" s="4"/>
       <c r="H197" s="4"/>
-    </row>
-    <row r="198" spans="1:8" ht="15" customHeight="1">
+      <c r="I197" s="4"/>
+    </row>
+    <row r="198" spans="1:9" ht="15" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>630</v>
       </c>
@@ -13804,19 +14455,22 @@
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="14">
+        <v>0</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="F198" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="F198" s="2" t="s">
+      <c r="G198" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G198" s="4"/>
       <c r="H198" s="4"/>
-    </row>
-    <row r="199" spans="1:8" ht="15" customHeight="1">
+      <c r="I198" s="4"/>
+    </row>
+    <row r="199" spans="1:9" ht="15" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>630</v>
       </c>
@@ -13826,21 +14480,24 @@
       <c r="C199" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="14">
+        <v>0</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E199" s="2" t="s">
+      <c r="F199" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F199" s="2" t="s">
+      <c r="G199" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="H199" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H199" s="4"/>
-    </row>
-    <row r="200" spans="1:8" ht="15" customHeight="1">
+      <c r="I199" s="4"/>
+    </row>
+    <row r="200" spans="1:9" ht="15" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>630</v>
       </c>
@@ -13850,19 +14507,22 @@
       <c r="C200" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="14">
+        <v>0</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E200" s="2" t="s">
+      <c r="F200" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="F200" s="2" t="s">
+      <c r="G200" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-    </row>
-    <row r="201" spans="1:8" ht="15" customHeight="1">
+      <c r="I200" s="4"/>
+    </row>
+    <row r="201" spans="1:9" ht="15" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>630</v>
       </c>
@@ -13872,19 +14532,22 @@
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="14">
+        <v>0</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E201" s="2" t="s">
+      <c r="F201" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="F201" s="2" t="s">
+      <c r="G201" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G201" s="4"/>
       <c r="H201" s="4"/>
-    </row>
-    <row r="202" spans="1:8" ht="15" customHeight="1">
+      <c r="I201" s="4"/>
+    </row>
+    <row r="202" spans="1:9" ht="15" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>630</v>
       </c>
@@ -13894,19 +14557,22 @@
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="14">
+        <v>0</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="F202" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="F202" s="2" t="s">
+      <c r="G202" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G202" s="4"/>
       <c r="H202" s="4"/>
-    </row>
-    <row r="203" spans="1:8" ht="15" customHeight="1">
+      <c r="I202" s="4"/>
+    </row>
+    <row r="203" spans="1:9" ht="15" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>630</v>
       </c>
@@ -13916,23 +14582,26 @@
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="14">
+        <v>0</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="F203" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="F203" s="2" t="s">
+      <c r="G203" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="H203" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="H203" s="2" t="s">
+      <c r="I203" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15" customHeight="1">
+    <row r="204" spans="1:9" ht="15" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>630</v>
       </c>
@@ -13942,23 +14611,26 @@
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="14">
+        <v>0</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="F204" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="G204" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G204" s="2" t="s">
+      <c r="H204" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H204" s="2" t="s">
+      <c r="I204" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="15" customHeight="1">
+    <row r="205" spans="1:9" ht="15" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>630</v>
       </c>
@@ -13968,19 +14640,22 @@
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="14">
+        <v>0</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F205" s="2" t="s">
+      <c r="G205" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="G205" s="4"/>
       <c r="H205" s="4"/>
-    </row>
-    <row r="206" spans="1:8" ht="15" customHeight="1">
+      <c r="I205" s="4"/>
+    </row>
+    <row r="206" spans="1:9" ht="15" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>630</v>
       </c>
@@ -13990,19 +14665,22 @@
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="14">
+        <v>0</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="F206" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F206" s="2" t="s">
+      <c r="G206" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="G206" s="4"/>
       <c r="H206" s="4"/>
-    </row>
-    <row r="207" spans="1:8" ht="15" customHeight="1">
+      <c r="I206" s="4"/>
+    </row>
+    <row r="207" spans="1:9" ht="15" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>630</v>
       </c>
@@ -14012,19 +14690,22 @@
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="14">
+        <v>0</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="F207" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="F207" s="2" t="s">
+      <c r="G207" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G207" s="4"/>
       <c r="H207" s="4"/>
-    </row>
-    <row r="208" spans="1:8" ht="15" customHeight="1">
+      <c r="I207" s="4"/>
+    </row>
+    <row r="208" spans="1:9" ht="15" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>630</v>
       </c>
@@ -14034,19 +14715,22 @@
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="14">
+        <v>0</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="F208" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="G208" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G208" s="4"/>
       <c r="H208" s="4"/>
-    </row>
-    <row r="209" spans="1:8" ht="15" customHeight="1">
+      <c r="I208" s="4"/>
+    </row>
+    <row r="209" spans="1:9" ht="15" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>630</v>
       </c>
@@ -14056,21 +14740,24 @@
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="14">
+        <v>0</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E209" s="2" t="s">
+      <c r="F209" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="F209" s="2" t="s">
+      <c r="G209" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G209" s="4"/>
-      <c r="H209" s="2" t="s">
+      <c r="H209" s="4"/>
+      <c r="I209" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="15" customHeight="1">
+    <row r="210" spans="1:9" ht="15" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>630</v>
       </c>
@@ -14080,19 +14767,22 @@
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="14">
+        <v>0</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="F210" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F210" s="2" t="s">
+      <c r="G210" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="G210" s="4"/>
       <c r="H210" s="4"/>
-    </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1">
+      <c r="I210" s="4"/>
+    </row>
+    <row r="211" spans="1:9" ht="15" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>630</v>
       </c>
@@ -14102,23 +14792,26 @@
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="14">
+        <v>0</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="F211" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="F211" s="2" t="s">
+      <c r="G211" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="H211" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H211" s="2" t="s">
+      <c r="I211" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="15" customHeight="1">
+    <row r="212" spans="1:9" ht="15" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>630</v>
       </c>
@@ -14128,19 +14821,22 @@
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="14">
+        <v>0</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="F212" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="G212" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G212" s="4"/>
       <c r="H212" s="4"/>
-    </row>
-    <row r="213" spans="1:8" ht="15" customHeight="1">
+      <c r="I212" s="4"/>
+    </row>
+    <row r="213" spans="1:9" ht="15" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>630</v>
       </c>
@@ -14150,21 +14846,24 @@
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="14">
+        <v>0</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="G213" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G213" s="4"/>
-      <c r="H213" s="2" t="s">
+      <c r="H213" s="4"/>
+      <c r="I213" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="15" customHeight="1">
+    <row r="214" spans="1:9" ht="15" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>630</v>
       </c>
@@ -14174,19 +14873,22 @@
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="14">
+        <v>0</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="F214" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="F214" s="2" t="s">
+      <c r="G214" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G214" s="4"/>
       <c r="H214" s="4"/>
-    </row>
-    <row r="215" spans="1:8" ht="15" customHeight="1">
+      <c r="I214" s="4"/>
+    </row>
+    <row r="215" spans="1:9" ht="15" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>630</v>
       </c>
@@ -14196,19 +14898,22 @@
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="14">
+        <v>0</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="F215" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F215" s="4"/>
-      <c r="G215" s="2" t="s">
+      <c r="G215" s="4"/>
+      <c r="H215" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H215" s="4"/>
-    </row>
-    <row r="216" spans="1:8" ht="15" customHeight="1">
+      <c r="I215" s="4"/>
+    </row>
+    <row r="216" spans="1:9" ht="15" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>630</v>
       </c>
@@ -14218,21 +14923,24 @@
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="14">
+        <v>0</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="F216" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="G216" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G216" s="4"/>
-      <c r="H216" s="2" t="s">
+      <c r="H216" s="4"/>
+      <c r="I216" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15" customHeight="1">
+    <row r="217" spans="1:9" ht="15" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>630</v>
       </c>
@@ -14242,19 +14950,22 @@
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="14">
+        <v>0</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E217" s="2" t="s">
+      <c r="F217" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="F217" s="2" t="s">
+      <c r="G217" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G217" s="4"/>
       <c r="H217" s="4"/>
-    </row>
-    <row r="218" spans="1:8" ht="15" customHeight="1">
+      <c r="I217" s="4"/>
+    </row>
+    <row r="218" spans="1:9" ht="15" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>630</v>
       </c>
@@ -14264,19 +14975,22 @@
       <c r="C218" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="14">
+        <v>0</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="F218" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="G218" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G218" s="4"/>
       <c r="H218" s="4"/>
-    </row>
-    <row r="219" spans="1:8" ht="15" customHeight="1">
+      <c r="I218" s="4"/>
+    </row>
+    <row r="219" spans="1:9" ht="15" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>630</v>
       </c>
@@ -14286,21 +15000,24 @@
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="14">
+        <v>0</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="F219" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="F219" s="2" t="s">
+      <c r="G219" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G219" s="4"/>
-      <c r="H219" s="2" t="s">
+      <c r="H219" s="4"/>
+      <c r="I219" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="15" customHeight="1">
+    <row r="220" spans="1:9" ht="15" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>702</v>
       </c>
@@ -14310,19 +15027,22 @@
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="14">
+        <v>0</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E220" s="5">
+      <c r="F220" s="5">
         <v>70</v>
       </c>
-      <c r="F220" s="2" t="s">
+      <c r="G220" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="G220" s="4"/>
       <c r="H220" s="4"/>
-    </row>
-    <row r="221" spans="1:8" ht="15" customHeight="1">
+      <c r="I220" s="4"/>
+    </row>
+    <row r="221" spans="1:9" ht="15" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>702</v>
       </c>
@@ -14332,19 +15052,22 @@
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="14">
+        <v>0</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E221" s="3">
+      <c r="F221" s="3">
         <v>39.700000000000003</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="G221" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G221" s="4"/>
       <c r="H221" s="4"/>
-    </row>
-    <row r="222" spans="1:8" ht="15" customHeight="1">
+      <c r="I221" s="4"/>
+    </row>
+    <row r="222" spans="1:9" ht="15" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>702</v>
       </c>
@@ -14354,19 +15077,22 @@
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="14">
+        <v>0</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E222" s="5">
+      <c r="F222" s="5">
         <v>96</v>
       </c>
-      <c r="F222" s="2" t="s">
+      <c r="G222" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G222" s="4"/>
       <c r="H222" s="4"/>
-    </row>
-    <row r="223" spans="1:8" ht="15" customHeight="1">
+      <c r="I222" s="4"/>
+    </row>
+    <row r="223" spans="1:9" ht="15" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>702</v>
       </c>
@@ -14376,19 +15102,22 @@
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="14">
+        <v>0</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E223" s="5">
+      <c r="F223" s="5">
         <v>78</v>
       </c>
-      <c r="F223" s="2" t="s">
+      <c r="G223" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G223" s="4"/>
       <c r="H223" s="4"/>
-    </row>
-    <row r="224" spans="1:8" ht="15" customHeight="1">
+      <c r="I223" s="4"/>
+    </row>
+    <row r="224" spans="1:9" ht="15" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>702</v>
       </c>
@@ -14398,19 +15127,22 @@
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="14">
+        <v>0</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E224" s="5">
+      <c r="F224" s="5">
         <v>33</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="G224" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G224" s="4"/>
       <c r="H224" s="4"/>
-    </row>
-    <row r="225" spans="1:8" ht="15" customHeight="1">
+      <c r="I224" s="4"/>
+    </row>
+    <row r="225" spans="1:9" ht="15" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>702</v>
       </c>
@@ -14420,19 +15152,22 @@
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="14">
+        <v>0</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="E225" s="5">
+      <c r="F225" s="5">
         <v>37</v>
       </c>
-      <c r="F225" s="2" t="s">
+      <c r="G225" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G225" s="4"/>
       <c r="H225" s="4"/>
-    </row>
-    <row r="226" spans="1:8" ht="15" customHeight="1">
+      <c r="I225" s="4"/>
+    </row>
+    <row r="226" spans="1:9" ht="15" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>702</v>
       </c>
@@ -14442,19 +15177,22 @@
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="14">
+        <v>0</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E226" s="3">
+      <c r="F226" s="3">
         <v>42.5</v>
       </c>
-      <c r="F226" s="2" t="s">
+      <c r="G226" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G226" s="4"/>
       <c r="H226" s="4"/>
-    </row>
-    <row r="227" spans="1:8" ht="15" customHeight="1">
+      <c r="I226" s="4"/>
+    </row>
+    <row r="227" spans="1:9" ht="15" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>702</v>
       </c>
@@ -14464,19 +15202,22 @@
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="14">
+        <v>0</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E227" s="5">
+      <c r="F227" s="5">
         <v>31</v>
       </c>
-      <c r="F227" s="2" t="s">
+      <c r="G227" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="G227" s="4"/>
       <c r="H227" s="4"/>
-    </row>
-    <row r="228" spans="1:8" ht="15" customHeight="1">
+      <c r="I227" s="4"/>
+    </row>
+    <row r="228" spans="1:9" ht="15" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>702</v>
       </c>
@@ -14486,19 +15227,22 @@
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="14">
+        <v>0</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="E228" s="3">
+      <c r="F228" s="3">
         <v>28.5</v>
       </c>
-      <c r="F228" s="2" t="s">
+      <c r="G228" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G228" s="4"/>
       <c r="H228" s="4"/>
-    </row>
-    <row r="229" spans="1:8" ht="15" customHeight="1">
+      <c r="I228" s="4"/>
+    </row>
+    <row r="229" spans="1:9" ht="15" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>702</v>
       </c>
@@ -14508,19 +15252,22 @@
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="14">
+        <v>0</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="E229" s="5">
+      <c r="F229" s="5">
         <v>63</v>
       </c>
-      <c r="F229" s="2" t="s">
+      <c r="G229" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="G229" s="4"/>
       <c r="H229" s="4"/>
-    </row>
-    <row r="230" spans="1:8" ht="15" customHeight="1">
+      <c r="I229" s="4"/>
+    </row>
+    <row r="230" spans="1:9" ht="15" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>702</v>
       </c>
@@ -14530,19 +15277,22 @@
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="2" t="s">
+      <c r="D230" s="14">
+        <v>0</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="E230" s="5">
+      <c r="F230" s="5">
         <v>73</v>
       </c>
-      <c r="F230" s="2" t="s">
+      <c r="G230" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G230" s="4"/>
       <c r="H230" s="4"/>
-    </row>
-    <row r="231" spans="1:8" ht="15" customHeight="1">
+      <c r="I230" s="4"/>
+    </row>
+    <row r="231" spans="1:9" ht="15" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>702</v>
       </c>
@@ -14552,19 +15302,22 @@
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D231" s="2" t="s">
+      <c r="D231" s="14">
+        <v>0</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="E231" s="5">
+      <c r="F231" s="5">
         <v>54</v>
       </c>
-      <c r="F231" s="2" t="s">
+      <c r="G231" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G231" s="4"/>
       <c r="H231" s="4"/>
-    </row>
-    <row r="232" spans="1:8" ht="15" customHeight="1">
+      <c r="I231" s="4"/>
+    </row>
+    <row r="232" spans="1:9" ht="15" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>702</v>
       </c>
@@ -14574,19 +15327,22 @@
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D232" s="2" t="s">
+      <c r="D232" s="14">
+        <v>0</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="E232" s="5">
+      <c r="F232" s="5">
         <v>55</v>
       </c>
-      <c r="F232" s="2" t="s">
+      <c r="G232" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G232" s="4"/>
       <c r="H232" s="4"/>
-    </row>
-    <row r="233" spans="1:8" ht="15" customHeight="1">
+      <c r="I232" s="4"/>
+    </row>
+    <row r="233" spans="1:9" ht="15" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>702</v>
       </c>
@@ -14596,19 +15352,22 @@
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D233" s="2" t="s">
+      <c r="D233" s="14">
+        <v>0</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="E233" s="5">
+      <c r="F233" s="5">
         <v>52</v>
       </c>
-      <c r="F233" s="2" t="s">
+      <c r="G233" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G233" s="4"/>
       <c r="H233" s="4"/>
-    </row>
-    <row r="234" spans="1:8" ht="15" customHeight="1">
+      <c r="I233" s="4"/>
+    </row>
+    <row r="234" spans="1:9" ht="15" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>702</v>
       </c>
@@ -14618,19 +15377,22 @@
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="2" t="s">
+      <c r="D234" s="14">
+        <v>0</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E234" s="3">
+      <c r="F234" s="3">
         <v>44.5</v>
       </c>
-      <c r="F234" s="2" t="s">
+      <c r="G234" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="G234" s="4"/>
       <c r="H234" s="4"/>
-    </row>
-    <row r="235" spans="1:8" ht="15" customHeight="1">
+      <c r="I234" s="4"/>
+    </row>
+    <row r="235" spans="1:9" ht="15" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>702</v>
       </c>
@@ -14640,19 +15402,22 @@
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="2" t="s">
+      <c r="D235" s="14">
+        <v>0</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E235" s="5">
+      <c r="F235" s="5">
         <v>65</v>
       </c>
-      <c r="F235" s="2" t="s">
+      <c r="G235" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G235" s="4"/>
       <c r="H235" s="4"/>
-    </row>
-    <row r="236" spans="1:8" ht="15.45" customHeight="1">
+      <c r="I235" s="4"/>
+    </row>
+    <row r="236" spans="1:9" ht="15.45" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>702</v>
       </c>
@@ -14662,19 +15427,22 @@
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="2" t="s">
+      <c r="D236" s="14">
+        <v>0</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="E236" s="3">
+      <c r="F236" s="3">
         <v>33.4</v>
       </c>
-      <c r="F236" s="2" t="s">
+      <c r="G236" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="G236" s="4"/>
       <c r="H236" s="4"/>
-    </row>
-    <row r="237" spans="1:8" ht="15" customHeight="1">
+      <c r="I236" s="4"/>
+    </row>
+    <row r="237" spans="1:9" ht="15" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>702</v>
       </c>
@@ -14684,19 +15452,22 @@
       <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="2" t="s">
+      <c r="D237" s="14">
+        <v>0</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="E237" s="5">
+      <c r="F237" s="5">
         <v>25</v>
       </c>
-      <c r="F237" s="2" t="s">
+      <c r="G237" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G237" s="4"/>
       <c r="H237" s="4"/>
-    </row>
-    <row r="238" spans="1:8" ht="15" customHeight="1">
+      <c r="I237" s="4"/>
+    </row>
+    <row r="238" spans="1:9" ht="15" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>702</v>
       </c>
@@ -14706,19 +15477,22 @@
       <c r="C238" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D238" s="2" t="s">
+      <c r="D238" s="14">
+        <v>0</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E238" s="5">
+      <c r="F238" s="5">
         <v>74</v>
       </c>
-      <c r="F238" s="2" t="s">
+      <c r="G238" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="G238" s="4"/>
       <c r="H238" s="4"/>
-    </row>
-    <row r="239" spans="1:8" ht="15" customHeight="1">
+      <c r="I238" s="4"/>
+    </row>
+    <row r="239" spans="1:9" ht="15" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>702</v>
       </c>
@@ -14728,19 +15502,22 @@
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D239" s="2" t="s">
+      <c r="D239" s="14">
+        <v>0</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="E239" s="3">
+      <c r="F239" s="3">
         <v>25.5</v>
       </c>
-      <c r="F239" s="2" t="s">
+      <c r="G239" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G239" s="4"/>
       <c r="H239" s="4"/>
-    </row>
-    <row r="240" spans="1:8" ht="15" customHeight="1">
+      <c r="I239" s="4"/>
+    </row>
+    <row r="240" spans="1:9" ht="15" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>702</v>
       </c>
@@ -14750,19 +15527,22 @@
       <c r="C240" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D240" s="2" t="s">
+      <c r="D240" s="14">
+        <v>0</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="E240" s="3">
+      <c r="F240" s="3">
         <v>36.200000000000003</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="G240" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G240" s="4"/>
       <c r="H240" s="4"/>
-    </row>
-    <row r="241" spans="1:8" ht="15" customHeight="1">
+      <c r="I240" s="4"/>
+    </row>
+    <row r="241" spans="1:9" ht="15" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>702</v>
       </c>
@@ -14772,19 +15552,22 @@
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D241" s="2" t="s">
+      <c r="D241" s="14">
+        <v>0</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="E241" s="3">
+      <c r="F241" s="3">
         <v>28.9</v>
       </c>
-      <c r="F241" s="2" t="s">
+      <c r="G241" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G241" s="4"/>
       <c r="H241" s="4"/>
-    </row>
-    <row r="242" spans="1:8" ht="15" customHeight="1">
+      <c r="I241" s="4"/>
+    </row>
+    <row r="242" spans="1:9" ht="15" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>702</v>
       </c>
@@ -14794,19 +15577,22 @@
       <c r="C242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D242" s="2" t="s">
+      <c r="D242" s="14">
+        <v>0</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="E242" s="5">
+      <c r="F242" s="5">
         <v>40</v>
       </c>
-      <c r="F242" s="2" t="s">
+      <c r="G242" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="G242" s="4"/>
       <c r="H242" s="4"/>
-    </row>
-    <row r="243" spans="1:8" ht="15" customHeight="1">
+      <c r="I242" s="4"/>
+    </row>
+    <row r="243" spans="1:9" ht="15" customHeight="1">
       <c r="A243" s="2" t="s">
         <v>702</v>
       </c>
@@ -14816,19 +15602,22 @@
       <c r="C243" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D243" s="2" t="s">
+      <c r="D243" s="14">
+        <v>0</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="E243" s="5">
+      <c r="F243" s="5">
         <v>30</v>
       </c>
-      <c r="F243" s="2" t="s">
+      <c r="G243" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="G243" s="4"/>
       <c r="H243" s="4"/>
-    </row>
-    <row r="244" spans="1:8" ht="15" customHeight="1">
+      <c r="I243" s="4"/>
+    </row>
+    <row r="244" spans="1:9" ht="15" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>702</v>
       </c>
@@ -14838,19 +15627,22 @@
       <c r="C244" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="2" t="s">
+      <c r="D244" s="14">
+        <v>0</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="E244" s="3">
+      <c r="F244" s="3">
         <v>37.5</v>
       </c>
-      <c r="F244" s="2" t="s">
+      <c r="G244" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G244" s="4"/>
       <c r="H244" s="4"/>
-    </row>
-    <row r="245" spans="1:8" ht="15" customHeight="1">
+      <c r="I244" s="4"/>
+    </row>
+    <row r="245" spans="1:9" ht="15" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>702</v>
       </c>
@@ -14860,19 +15652,22 @@
       <c r="C245" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D245" s="2" t="s">
+      <c r="D245" s="14">
+        <v>0</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="E245" s="5">
+      <c r="F245" s="5">
         <v>50</v>
       </c>
-      <c r="F245" s="2" t="s">
+      <c r="G245" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G245" s="4"/>
       <c r="H245" s="4"/>
-    </row>
-    <row r="246" spans="1:8" ht="15" customHeight="1">
+      <c r="I245" s="4"/>
+    </row>
+    <row r="246" spans="1:9" ht="15" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>702</v>
       </c>
@@ -14882,19 +15677,22 @@
       <c r="C246" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="2" t="s">
+      <c r="D246" s="14">
+        <v>0</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="E246" s="5">
+      <c r="F246" s="5">
         <v>60</v>
       </c>
-      <c r="F246" s="2" t="s">
+      <c r="G246" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G246" s="4"/>
       <c r="H246" s="4"/>
-    </row>
-    <row r="247" spans="1:8" ht="15" customHeight="1">
+      <c r="I246" s="4"/>
+    </row>
+    <row r="247" spans="1:9" ht="15" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>702</v>
       </c>
@@ -14904,19 +15702,22 @@
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D247" s="2" t="s">
+      <c r="D247" s="14">
+        <v>0</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="E247" s="3">
+      <c r="F247" s="3">
         <v>38.4</v>
       </c>
-      <c r="F247" s="2" t="s">
+      <c r="G247" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="G247" s="4"/>
       <c r="H247" s="4"/>
-    </row>
-    <row r="248" spans="1:8" ht="15" customHeight="1">
+      <c r="I247" s="4"/>
+    </row>
+    <row r="248" spans="1:9" ht="15" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>702</v>
       </c>
@@ -14926,19 +15727,22 @@
       <c r="C248" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D248" s="2" t="s">
+      <c r="D248" s="14">
+        <v>0</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E248" s="3">
+      <c r="F248" s="3">
         <v>60.7</v>
       </c>
-      <c r="F248" s="2" t="s">
+      <c r="G248" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G248" s="4"/>
       <c r="H248" s="4"/>
-    </row>
-    <row r="249" spans="1:8" ht="15" customHeight="1">
+      <c r="I248" s="4"/>
+    </row>
+    <row r="249" spans="1:9" ht="15" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>702</v>
       </c>
@@ -14948,19 +15752,22 @@
       <c r="C249" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D249" s="2" t="s">
+      <c r="D249" s="14">
+        <v>0</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="E249" s="3">
+      <c r="F249" s="3">
         <v>46.3</v>
       </c>
-      <c r="F249" s="2" t="s">
+      <c r="G249" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="G249" s="4"/>
       <c r="H249" s="4"/>
-    </row>
-    <row r="250" spans="1:8" ht="15" customHeight="1">
+      <c r="I249" s="4"/>
+    </row>
+    <row r="250" spans="1:9" ht="15" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>702</v>
       </c>
@@ -14970,19 +15777,22 @@
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="2" t="s">
+      <c r="D250" s="14">
+        <v>0</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="E250" s="5">
+      <c r="F250" s="5">
         <v>29</v>
       </c>
-      <c r="F250" s="2" t="s">
+      <c r="G250" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G250" s="4"/>
       <c r="H250" s="4"/>
-    </row>
-    <row r="251" spans="1:8" ht="15" customHeight="1">
+      <c r="I250" s="4"/>
+    </row>
+    <row r="251" spans="1:9" ht="15" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>702</v>
       </c>
@@ -14992,19 +15802,22 @@
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="2" t="s">
+      <c r="D251" s="14">
+        <v>0</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E251" s="3">
+      <c r="F251" s="3">
         <v>79.5</v>
       </c>
-      <c r="F251" s="2" t="s">
+      <c r="G251" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="G251" s="4"/>
       <c r="H251" s="4"/>
-    </row>
-    <row r="252" spans="1:8" ht="15" customHeight="1">
+      <c r="I251" s="4"/>
+    </row>
+    <row r="252" spans="1:9" ht="15" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>702</v>
       </c>
@@ -15014,19 +15827,22 @@
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="2" t="s">
+      <c r="D252" s="14">
+        <v>0</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="E252" s="5">
+      <c r="F252" s="5">
         <v>58</v>
       </c>
-      <c r="F252" s="2" t="s">
+      <c r="G252" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G252" s="4"/>
       <c r="H252" s="4"/>
-    </row>
-    <row r="253" spans="1:8" ht="15" customHeight="1">
+      <c r="I252" s="4"/>
+    </row>
+    <row r="253" spans="1:9" ht="15" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>702</v>
       </c>
@@ -15036,19 +15852,22 @@
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="2" t="s">
+      <c r="D253" s="14">
+        <v>0</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="E253" s="5">
+      <c r="F253" s="5">
         <v>50</v>
       </c>
-      <c r="F253" s="2" t="s">
+      <c r="G253" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G253" s="4"/>
       <c r="H253" s="4"/>
-    </row>
-    <row r="254" spans="1:8" ht="15" customHeight="1">
+      <c r="I253" s="4"/>
+    </row>
+    <row r="254" spans="1:9" ht="15" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>702</v>
       </c>
@@ -15058,19 +15877,22 @@
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D254" s="2" t="s">
+      <c r="D254" s="14">
+        <v>0</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="E254" s="3">
+      <c r="F254" s="3">
         <v>29.5</v>
       </c>
-      <c r="F254" s="2" t="s">
+      <c r="G254" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G254" s="4"/>
       <c r="H254" s="4"/>
-    </row>
-    <row r="255" spans="1:8" ht="15" customHeight="1">
+      <c r="I254" s="4"/>
+    </row>
+    <row r="255" spans="1:9" ht="15" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>702</v>
       </c>
@@ -15080,19 +15902,22 @@
       <c r="C255" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D255" s="2" t="s">
+      <c r="D255" s="14">
+        <v>0</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E255" s="3">
+      <c r="F255" s="3">
         <v>25.4</v>
       </c>
-      <c r="F255" s="2" t="s">
+      <c r="G255" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G255" s="4"/>
       <c r="H255" s="4"/>
-    </row>
-    <row r="256" spans="1:8" ht="15" customHeight="1">
+      <c r="I255" s="4"/>
+    </row>
+    <row r="256" spans="1:9" ht="15" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>702</v>
       </c>
@@ -15102,19 +15927,22 @@
       <c r="C256" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D256" s="2" t="s">
+      <c r="D256" s="14">
+        <v>0</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="E256" s="5">
+      <c r="F256" s="5">
         <v>64</v>
       </c>
-      <c r="F256" s="2" t="s">
+      <c r="G256" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G256" s="4"/>
       <c r="H256" s="4"/>
-    </row>
-    <row r="257" spans="1:8" ht="15" customHeight="1">
+      <c r="I256" s="4"/>
+    </row>
+    <row r="257" spans="1:9" ht="15" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>702</v>
       </c>
@@ -15124,19 +15952,22 @@
       <c r="C257" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D257" s="2" t="s">
+      <c r="D257" s="14">
+        <v>0</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="E257" s="5">
+      <c r="F257" s="5">
         <v>63</v>
       </c>
-      <c r="F257" s="2" t="s">
+      <c r="G257" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G257" s="4"/>
       <c r="H257" s="4"/>
-    </row>
-    <row r="258" spans="1:8" ht="15" customHeight="1">
+      <c r="I257" s="4"/>
+    </row>
+    <row r="258" spans="1:9" ht="15" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>702</v>
       </c>
@@ -15146,19 +15977,22 @@
       <c r="C258" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D258" s="2" t="s">
+      <c r="D258" s="14">
+        <v>0</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="E258" s="3">
+      <c r="F258" s="3">
         <v>36.5</v>
       </c>
-      <c r="F258" s="2" t="s">
+      <c r="G258" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="G258" s="4"/>
       <c r="H258" s="4"/>
-    </row>
-    <row r="259" spans="1:8" ht="15" customHeight="1">
+      <c r="I258" s="4"/>
+    </row>
+    <row r="259" spans="1:9" ht="15" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>702</v>
       </c>
@@ -15168,19 +16002,22 @@
       <c r="C259" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D259" s="2" t="s">
+      <c r="D259" s="14">
+        <v>0</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="E259" s="3">
+      <c r="F259" s="3">
         <v>38.5</v>
       </c>
-      <c r="F259" s="2" t="s">
+      <c r="G259" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="G259" s="4"/>
       <c r="H259" s="4"/>
-    </row>
-    <row r="260" spans="1:8" ht="15" customHeight="1">
+      <c r="I259" s="4"/>
+    </row>
+    <row r="260" spans="1:9" ht="15" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>702</v>
       </c>
@@ -15190,19 +16027,22 @@
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="2" t="s">
+      <c r="D260" s="14">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="E260" s="5">
+      <c r="F260" s="5">
         <v>57</v>
       </c>
-      <c r="F260" s="2" t="s">
+      <c r="G260" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G260" s="4"/>
       <c r="H260" s="4"/>
-    </row>
-    <row r="261" spans="1:8" ht="15" customHeight="1">
+      <c r="I260" s="4"/>
+    </row>
+    <row r="261" spans="1:9" ht="15" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>702</v>
       </c>
@@ -15212,19 +16052,22 @@
       <c r="C261" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D261" s="2" t="s">
+      <c r="D261" s="14">
+        <v>0</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="E261" s="3">
+      <c r="F261" s="3">
         <v>34.299999999999997</v>
       </c>
-      <c r="F261" s="2" t="s">
+      <c r="G261" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G261" s="4"/>
       <c r="H261" s="4"/>
-    </row>
-    <row r="262" spans="1:8" ht="15" customHeight="1">
+      <c r="I261" s="4"/>
+    </row>
+    <row r="262" spans="1:9" ht="15" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>702</v>
       </c>
@@ -15234,19 +16077,22 @@
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D262" s="2" t="s">
+      <c r="D262" s="14">
+        <v>0</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="E262" s="5">
+      <c r="F262" s="5">
         <v>42</v>
       </c>
-      <c r="F262" s="2" t="s">
+      <c r="G262" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G262" s="4"/>
       <c r="H262" s="4"/>
-    </row>
-    <row r="263" spans="1:8" ht="15" customHeight="1">
+      <c r="I262" s="4"/>
+    </row>
+    <row r="263" spans="1:9" ht="15" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>702</v>
       </c>
@@ -15256,19 +16102,22 @@
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D263" s="2" t="s">
+      <c r="D263" s="14">
+        <v>0</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="E263" s="3">
+      <c r="F263" s="3">
         <v>34.799999999999997</v>
       </c>
-      <c r="F263" s="2" t="s">
+      <c r="G263" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="G263" s="4"/>
       <c r="H263" s="4"/>
-    </row>
-    <row r="264" spans="1:8" ht="15" customHeight="1">
+      <c r="I263" s="4"/>
+    </row>
+    <row r="264" spans="1:9" ht="15" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>702</v>
       </c>
@@ -15278,19 +16127,22 @@
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D264" s="2" t="s">
+      <c r="D264" s="14">
+        <v>0</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="E264" s="5">
+      <c r="F264" s="5">
         <v>32</v>
       </c>
-      <c r="F264" s="2" t="s">
+      <c r="G264" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="G264" s="4"/>
       <c r="H264" s="4"/>
-    </row>
-    <row r="265" spans="1:8" ht="15" customHeight="1">
+      <c r="I264" s="4"/>
+    </row>
+    <row r="265" spans="1:9" ht="15" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>702</v>
       </c>
@@ -15300,19 +16152,22 @@
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D265" s="2" t="s">
+      <c r="D265" s="14">
+        <v>0</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E265" s="3">
+      <c r="F265" s="3">
         <v>24.5</v>
       </c>
-      <c r="F265" s="2" t="s">
+      <c r="G265" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G265" s="4"/>
       <c r="H265" s="4"/>
-    </row>
-    <row r="266" spans="1:8" ht="15" customHeight="1">
+      <c r="I265" s="4"/>
+    </row>
+    <row r="266" spans="1:9" ht="15" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>702</v>
       </c>
@@ -15322,19 +16177,22 @@
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D266" s="2" t="s">
+      <c r="D266" s="14">
+        <v>0</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E266" s="5">
+      <c r="F266" s="5">
         <v>39</v>
       </c>
-      <c r="F266" s="2" t="s">
+      <c r="G266" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="G266" s="4"/>
       <c r="H266" s="4"/>
-    </row>
-    <row r="267" spans="1:8" ht="15" customHeight="1">
+      <c r="I266" s="4"/>
+    </row>
+    <row r="267" spans="1:9" ht="15" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>702</v>
       </c>
@@ -15344,19 +16202,22 @@
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="2" t="s">
+      <c r="D267" s="14">
+        <v>0</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="E267" s="2" t="s">
+      <c r="F267" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="F267" s="2" t="s">
+      <c r="G267" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G267" s="4"/>
       <c r="H267" s="4"/>
-    </row>
-    <row r="268" spans="1:8" ht="15" customHeight="1">
+      <c r="I267" s="4"/>
+    </row>
+    <row r="268" spans="1:9" ht="15" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>702</v>
       </c>
@@ -15366,19 +16227,22 @@
       <c r="C268" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="2" t="s">
+      <c r="D268" s="14">
+        <v>0</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="E268" s="5">
+      <c r="F268" s="5">
         <v>42</v>
       </c>
-      <c r="F268" s="2" t="s">
+      <c r="G268" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="G268" s="4"/>
       <c r="H268" s="4"/>
-    </row>
-    <row r="269" spans="1:8" ht="15" customHeight="1">
+      <c r="I268" s="4"/>
+    </row>
+    <row r="269" spans="1:9" ht="15" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>702</v>
       </c>
@@ -15388,19 +16252,22 @@
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D269" s="2" t="s">
+      <c r="D269" s="14">
+        <v>0</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="E269" s="3">
+      <c r="F269" s="3">
         <v>60.2</v>
       </c>
-      <c r="F269" s="2" t="s">
+      <c r="G269" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G269" s="4"/>
       <c r="H269" s="4"/>
-    </row>
-    <row r="270" spans="1:8" ht="15" customHeight="1">
+      <c r="I269" s="4"/>
+    </row>
+    <row r="270" spans="1:9" ht="15" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>702</v>
       </c>
@@ -15410,19 +16277,22 @@
       <c r="C270" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D270" s="2" t="s">
+      <c r="D270" s="14">
+        <v>0</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="E270" s="5">
+      <c r="F270" s="5">
         <v>45</v>
       </c>
-      <c r="F270" s="2" t="s">
+      <c r="G270" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="G270" s="4"/>
       <c r="H270" s="4"/>
-    </row>
-    <row r="271" spans="1:8" ht="15" customHeight="1">
+      <c r="I270" s="4"/>
+    </row>
+    <row r="271" spans="1:9" ht="15" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>702</v>
       </c>
@@ -15432,19 +16302,22 @@
       <c r="C271" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D271" s="2" t="s">
+      <c r="D271" s="14">
+        <v>0</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E271" s="5">
+      <c r="F271" s="5">
         <v>54</v>
       </c>
-      <c r="F271" s="2" t="s">
+      <c r="G271" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G271" s="4"/>
       <c r="H271" s="4"/>
-    </row>
-    <row r="272" spans="1:8" ht="15" customHeight="1">
+      <c r="I271" s="4"/>
+    </row>
+    <row r="272" spans="1:9" ht="15" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>702</v>
       </c>
@@ -15454,19 +16327,22 @@
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="2" t="s">
+      <c r="D272" s="14">
+        <v>0</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="E272" s="5">
+      <c r="F272" s="5">
         <v>18</v>
       </c>
-      <c r="F272" s="2" t="s">
+      <c r="G272" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G272" s="4"/>
       <c r="H272" s="4"/>
-    </row>
-    <row r="273" spans="1:8" ht="15" customHeight="1">
+      <c r="I272" s="4"/>
+    </row>
+    <row r="273" spans="1:9" ht="15" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>702</v>
       </c>
@@ -15476,19 +16352,22 @@
       <c r="C273" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D273" s="2" t="s">
+      <c r="D273" s="14">
+        <v>0</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E273" s="5">
+      <c r="F273" s="5">
         <v>23</v>
       </c>
-      <c r="F273" s="2" t="s">
+      <c r="G273" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G273" s="4"/>
       <c r="H273" s="4"/>
-    </row>
-    <row r="274" spans="1:8" ht="15" customHeight="1">
+      <c r="I273" s="4"/>
+    </row>
+    <row r="274" spans="1:9" ht="15" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>702</v>
       </c>
@@ -15498,19 +16377,22 @@
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D274" s="2" t="s">
+      <c r="D274" s="14">
+        <v>0</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E274" s="5">
+      <c r="F274" s="5">
         <v>42</v>
       </c>
-      <c r="F274" s="2" t="s">
+      <c r="G274" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G274" s="4"/>
       <c r="H274" s="4"/>
-    </row>
-    <row r="275" spans="1:8" ht="15" customHeight="1">
+      <c r="I274" s="4"/>
+    </row>
+    <row r="275" spans="1:9" ht="15" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>702</v>
       </c>
@@ -15520,19 +16402,22 @@
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D275" s="2" t="s">
+      <c r="D275" s="14">
+        <v>0</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="E275" s="5">
+      <c r="F275" s="5">
         <v>51</v>
       </c>
-      <c r="F275" s="2" t="s">
+      <c r="G275" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G275" s="4"/>
       <c r="H275" s="4"/>
-    </row>
-    <row r="276" spans="1:8" ht="15" customHeight="1">
+      <c r="I275" s="4"/>
+    </row>
+    <row r="276" spans="1:9" ht="15" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>702</v>
       </c>
@@ -15542,19 +16427,22 @@
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D276" s="2" t="s">
+      <c r="D276" s="14">
+        <v>0</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E276" s="3">
+      <c r="F276" s="3">
         <v>24.9</v>
       </c>
-      <c r="F276" s="2" t="s">
+      <c r="G276" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G276" s="4"/>
       <c r="H276" s="4"/>
-    </row>
-    <row r="277" spans="1:8" ht="15" customHeight="1">
+      <c r="I276" s="4"/>
+    </row>
+    <row r="277" spans="1:9" ht="15" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>702</v>
       </c>
@@ -15564,19 +16452,22 @@
       <c r="C277" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D277" s="2" t="s">
+      <c r="D277" s="14">
+        <v>0</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E277" s="3">
+      <c r="F277" s="3">
         <v>24.5</v>
       </c>
-      <c r="F277" s="2" t="s">
+      <c r="G277" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G277" s="4"/>
       <c r="H277" s="4"/>
-    </row>
-    <row r="278" spans="1:8" ht="15" customHeight="1">
+      <c r="I277" s="4"/>
+    </row>
+    <row r="278" spans="1:9" ht="15" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>702</v>
       </c>
@@ -15586,19 +16477,22 @@
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D278" s="2" t="s">
+      <c r="D278" s="14">
+        <v>0</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="E278" s="5">
+      <c r="F278" s="5">
         <v>35</v>
       </c>
-      <c r="F278" s="2" t="s">
+      <c r="G278" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G278" s="4"/>
       <c r="H278" s="4"/>
-    </row>
-    <row r="279" spans="1:8" ht="15" customHeight="1">
+      <c r="I278" s="4"/>
+    </row>
+    <row r="279" spans="1:9" ht="15" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>702</v>
       </c>
@@ -15608,19 +16502,22 @@
       <c r="C279" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D279" s="2" t="s">
+      <c r="D279" s="14">
+        <v>0</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E279" s="5">
+      <c r="F279" s="5">
         <v>35</v>
       </c>
-      <c r="F279" s="2" t="s">
+      <c r="G279" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G279" s="4"/>
       <c r="H279" s="4"/>
-    </row>
-    <row r="280" spans="1:8" ht="15" customHeight="1">
+      <c r="I279" s="4"/>
+    </row>
+    <row r="280" spans="1:9" ht="15" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>702</v>
       </c>
@@ -15630,19 +16527,22 @@
       <c r="C280" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D280" s="2" t="s">
+      <c r="D280" s="14">
+        <v>0</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E280" s="3">
+      <c r="F280" s="3">
         <v>52.8</v>
       </c>
-      <c r="F280" s="2" t="s">
+      <c r="G280" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="G280" s="4"/>
       <c r="H280" s="4"/>
-    </row>
-    <row r="281" spans="1:8" ht="15" customHeight="1">
+      <c r="I280" s="4"/>
+    </row>
+    <row r="281" spans="1:9" ht="15" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>702</v>
       </c>
@@ -15652,19 +16552,22 @@
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D281" s="2" t="s">
+      <c r="D281" s="14">
+        <v>0</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="E281" s="5">
+      <c r="F281" s="5">
         <v>45</v>
       </c>
-      <c r="F281" s="2" t="s">
+      <c r="G281" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G281" s="4"/>
       <c r="H281" s="4"/>
-    </row>
-    <row r="282" spans="1:8" ht="15" customHeight="1">
+      <c r="I281" s="4"/>
+    </row>
+    <row r="282" spans="1:9" ht="15" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>702</v>
       </c>
@@ -15674,19 +16577,22 @@
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D282" s="2" t="s">
+      <c r="D282" s="14">
+        <v>0</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="E282" s="5">
+      <c r="F282" s="5">
         <v>62</v>
       </c>
-      <c r="F282" s="2" t="s">
+      <c r="G282" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="G282" s="4"/>
       <c r="H282" s="4"/>
-    </row>
-    <row r="283" spans="1:8" ht="15.45" customHeight="1">
+      <c r="I282" s="4"/>
+    </row>
+    <row r="283" spans="1:9" ht="15.45" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>702</v>
       </c>
@@ -15696,19 +16602,22 @@
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D283" s="2" t="s">
+      <c r="D283" s="14">
+        <v>0</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E283" s="3">
+      <c r="F283" s="3">
         <v>19.5</v>
       </c>
-      <c r="F283" s="6" t="s">
+      <c r="G283" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="G283" s="4"/>
       <c r="H283" s="4"/>
-    </row>
-    <row r="284" spans="1:8" ht="15" customHeight="1">
+      <c r="I283" s="4"/>
+    </row>
+    <row r="284" spans="1:9" ht="15" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>702</v>
       </c>
@@ -15718,19 +16627,22 @@
       <c r="C284" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D284" s="2" t="s">
+      <c r="D284" s="14">
+        <v>0</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="E284" s="5">
+      <c r="F284" s="5">
         <v>20</v>
       </c>
-      <c r="F284" s="2" t="s">
+      <c r="G284" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G284" s="4"/>
       <c r="H284" s="4"/>
-    </row>
-    <row r="285" spans="1:8" ht="15" customHeight="1">
+      <c r="I284" s="4"/>
+    </row>
+    <row r="285" spans="1:9" ht="15" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>702</v>
       </c>
@@ -15740,19 +16652,22 @@
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D285" s="2" t="s">
+      <c r="D285" s="14">
+        <v>0</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E285" s="3">
+      <c r="F285" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="F285" s="2" t="s">
+      <c r="G285" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="G285" s="4"/>
       <c r="H285" s="4"/>
-    </row>
-    <row r="286" spans="1:8" ht="15" customHeight="1">
+      <c r="I285" s="4"/>
+    </row>
+    <row r="286" spans="1:9" ht="15" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>702</v>
       </c>
@@ -15762,21 +16677,24 @@
       <c r="C286" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D286" s="2" t="s">
+      <c r="D286" s="14">
+        <v>0</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="E286" s="2" t="s">
+      <c r="F286" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="F286" s="2" t="s">
+      <c r="G286" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G286" s="2" t="s">
+      <c r="H286" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H286" s="4"/>
-    </row>
-    <row r="287" spans="1:8" ht="15" customHeight="1">
+      <c r="I286" s="4"/>
+    </row>
+    <row r="287" spans="1:9" ht="15" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>702</v>
       </c>
@@ -15786,19 +16704,22 @@
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="2" t="s">
+      <c r="D287" s="14">
+        <v>0</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="E287" s="2" t="s">
+      <c r="F287" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="F287" s="2" t="s">
+      <c r="G287" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G287" s="4"/>
       <c r="H287" s="4"/>
-    </row>
-    <row r="288" spans="1:8" ht="15" customHeight="1">
+      <c r="I287" s="4"/>
+    </row>
+    <row r="288" spans="1:9" ht="15" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>702</v>
       </c>
@@ -15808,21 +16729,24 @@
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="2" t="s">
+      <c r="D288" s="14">
+        <v>0</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E288" s="2" t="s">
+      <c r="F288" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="F288" s="2" t="s">
+      <c r="G288" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G288" s="4"/>
-      <c r="H288" s="2" t="s">
+      <c r="H288" s="4"/>
+      <c r="I288" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="15" customHeight="1">
+    <row r="289" spans="1:9" ht="15" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>702</v>
       </c>
@@ -15832,19 +16756,22 @@
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D289" s="2" t="s">
+      <c r="D289" s="14">
+        <v>0</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="E289" s="2" t="s">
+      <c r="F289" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="F289" s="2" t="s">
+      <c r="G289" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G289" s="4"/>
       <c r="H289" s="4"/>
-    </row>
-    <row r="290" spans="1:8" ht="15" customHeight="1">
+      <c r="I289" s="4"/>
+    </row>
+    <row r="290" spans="1:9" ht="15" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>702</v>
       </c>
@@ -15854,21 +16781,24 @@
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D290" s="2" t="s">
+      <c r="D290" s="14">
+        <v>0</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E290" s="2" t="s">
+      <c r="F290" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F290" s="2" t="s">
+      <c r="G290" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G290" s="2" t="s">
+      <c r="H290" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H290" s="4"/>
-    </row>
-    <row r="291" spans="1:8" ht="15" customHeight="1">
+      <c r="I290" s="4"/>
+    </row>
+    <row r="291" spans="1:9" ht="15" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>702</v>
       </c>
@@ -15878,21 +16808,24 @@
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D291" s="2" t="s">
+      <c r="D291" s="14">
+        <v>0</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="E291" s="2" t="s">
+      <c r="F291" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F291" s="2" t="s">
+      <c r="G291" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="G291" s="2" t="s">
+      <c r="H291" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H291" s="4"/>
-    </row>
-    <row r="292" spans="1:8" ht="15" customHeight="1">
+      <c r="I291" s="4"/>
+    </row>
+    <row r="292" spans="1:9" ht="15" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>702</v>
       </c>
@@ -15902,21 +16835,24 @@
       <c r="C292" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D292" s="2" t="s">
+      <c r="D292" s="14">
+        <v>0</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="E292" s="2" t="s">
+      <c r="F292" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="F292" s="2" t="s">
+      <c r="G292" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="H292" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H292" s="4"/>
-    </row>
-    <row r="293" spans="1:8" ht="15" customHeight="1">
+      <c r="I292" s="4"/>
+    </row>
+    <row r="293" spans="1:9" ht="15" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>702</v>
       </c>
@@ -15926,21 +16862,24 @@
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="2" t="s">
+      <c r="D293" s="14">
+        <v>0</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="E293" s="2" t="s">
+      <c r="F293" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="F293" s="2" t="s">
+      <c r="G293" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="G293" s="2" t="s">
+      <c r="H293" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H293" s="4"/>
-    </row>
-    <row r="294" spans="1:8" ht="15" customHeight="1">
+      <c r="I293" s="4"/>
+    </row>
+    <row r="294" spans="1:9" ht="15" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>702</v>
       </c>
@@ -15950,21 +16889,24 @@
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D294" s="2" t="s">
+      <c r="D294" s="14">
+        <v>0</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="E294" s="2" t="s">
+      <c r="F294" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="F294" s="2" t="s">
+      <c r="G294" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G294" s="2" t="s">
+      <c r="H294" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="H294" s="4"/>
-    </row>
-    <row r="295" spans="1:8" ht="15" customHeight="1">
+      <c r="I294" s="4"/>
+    </row>
+    <row r="295" spans="1:9" ht="15" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>702</v>
       </c>
@@ -15974,21 +16916,24 @@
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D295" s="2" t="s">
+      <c r="D295" s="14">
+        <v>0</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="E295" s="2" t="s">
+      <c r="F295" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="F295" s="2" t="s">
+      <c r="G295" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G295" s="2" t="s">
+      <c r="H295" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H295" s="4"/>
-    </row>
-    <row r="296" spans="1:8" ht="15" customHeight="1">
+      <c r="I295" s="4"/>
+    </row>
+    <row r="296" spans="1:9" ht="15" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>702</v>
       </c>
@@ -15998,21 +16943,24 @@
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D296" s="2" t="s">
+      <c r="D296" s="14">
+        <v>0</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>875</v>
       </c>
-      <c r="E296" s="2" t="s">
+      <c r="F296" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="F296" s="2" t="s">
+      <c r="G296" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="G296" s="2" t="s">
+      <c r="H296" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="H296" s="4"/>
-    </row>
-    <row r="297" spans="1:8" ht="15.45" customHeight="1">
+      <c r="I296" s="4"/>
+    </row>
+    <row r="297" spans="1:9" ht="15.45" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>702</v>
       </c>
@@ -16022,35 +16970,38 @@
       <c r="C297" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D297" s="2" t="s">
+      <c r="D297" s="14">
+        <v>0</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="E297" s="2" t="s">
+      <c r="F297" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="F297" s="2" t="s">
+      <c r="G297" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G297" s="2" t="s">
+      <c r="H297" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H297" s="4"/>
+      <c r="I297" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/选手名单7.27(最终版）.xlsx
+++ b/data/选手名单7.27(最终版）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomla\Documents\GitHub\karate\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C650EA20-6052-4C5B-A602-72E8A1A42D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1881240F-1FBC-40FE-8232-62B8BC7E9AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="10368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="883">
   <si>
     <r>
       <rPr>
@@ -8843,6 +8843,14 @@
   </si>
   <si>
     <t>赢的次数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>U9女子中级组+35KG</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>U9男子中级组-35KG</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -9012,15 +9020,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -9028,6 +9027,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9307,8 +9315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="154" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+    <sheetView tabSelected="1" topLeftCell="A235" zoomScale="154" workbookViewId="0">
+      <selection activeCell="G239" sqref="G239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.296875" defaultRowHeight="13.8"/>
@@ -9325,37 +9333,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.7" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="21" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="16" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="13" t="s">
         <v>880</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
@@ -9376,7 +9384,7 @@
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -9401,7 +9409,7 @@
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -9426,7 +9434,7 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -9451,7 +9459,7 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -9469,28 +9477,28 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -9498,16 +9506,16 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="14">
-        <v>0</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="2" t="s">
         <v>31</v>
       </c>
@@ -9522,7 +9530,7 @@
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -9547,7 +9555,7 @@
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -9570,7 +9578,7 @@
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -9597,7 +9605,7 @@
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -9624,7 +9632,7 @@
       <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -9649,7 +9657,7 @@
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -9676,7 +9684,7 @@
       <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -9701,7 +9709,7 @@
       <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -9726,7 +9734,7 @@
       <c r="C17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -9751,7 +9759,7 @@
       <c r="C18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -9774,7 +9782,7 @@
       <c r="C19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="11">
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -9799,7 +9807,7 @@
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="11">
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -9826,7 +9834,7 @@
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="11">
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -9851,7 +9859,7 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="11">
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -9878,7 +9886,7 @@
       <c r="C23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="11">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -9903,7 +9911,7 @@
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -9928,7 +9936,7 @@
       <c r="C25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="11">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -9955,7 +9963,7 @@
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="11">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -9980,7 +9988,7 @@
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="11">
         <v>0</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -10007,7 +10015,7 @@
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="11">
         <v>0</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -10032,7 +10040,7 @@
       <c r="C29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="11">
         <v>0</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -10059,7 +10067,7 @@
       <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="11">
         <v>0</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -10084,7 +10092,7 @@
       <c r="C31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="11">
         <v>0</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -10111,7 +10119,7 @@
       <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="11">
         <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -10136,7 +10144,7 @@
       <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="11">
         <v>0</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -10163,7 +10171,7 @@
       <c r="C34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="11">
         <v>0</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -10188,7 +10196,7 @@
       <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="11">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -10215,7 +10223,7 @@
       <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="11">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -10240,7 +10248,7 @@
       <c r="C37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="11">
         <v>0</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -10265,7 +10273,7 @@
       <c r="C38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="11">
         <v>0</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -10290,7 +10298,7 @@
       <c r="C39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="11">
         <v>0</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -10315,7 +10323,7 @@
       <c r="C40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="11">
         <v>0</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -10344,7 +10352,7 @@
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="11">
         <v>0</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -10373,7 +10381,7 @@
       <c r="C42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="11">
         <v>0</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -10402,7 +10410,7 @@
       <c r="C43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="11">
         <v>0</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -10431,7 +10439,7 @@
       <c r="C44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="11">
         <v>0</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -10456,7 +10464,7 @@
       <c r="C45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="11">
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -10483,7 +10491,7 @@
       <c r="C46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="11">
         <v>0</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -10508,7 +10516,7 @@
       <c r="C47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="11">
         <v>0</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -10535,7 +10543,7 @@
       <c r="C48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="11">
         <v>0</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -10564,7 +10572,7 @@
       <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="11">
         <v>0</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -10589,7 +10597,7 @@
       <c r="C50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="11">
         <v>0</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -10614,7 +10622,7 @@
       <c r="C51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="11">
         <v>0</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -10643,7 +10651,7 @@
       <c r="C52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="11">
         <v>0</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -10668,7 +10676,7 @@
       <c r="C53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="11">
         <v>0</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -10693,7 +10701,7 @@
       <c r="C54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="11">
         <v>0</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -10716,7 +10724,7 @@
       <c r="C55" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="11">
         <v>0</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -10743,7 +10751,7 @@
       <c r="C56" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -10768,7 +10776,7 @@
       <c r="C57" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D57" s="11">
         <v>0</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -10795,7 +10803,7 @@
       <c r="C58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="11">
         <v>0</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -10822,7 +10830,7 @@
       <c r="C59" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="11">
         <v>0</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -10849,7 +10857,7 @@
       <c r="C60" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="14">
+      <c r="D60" s="11">
         <v>0</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -10876,7 +10884,7 @@
       <c r="C61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D61" s="11">
         <v>0</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -10903,7 +10911,7 @@
       <c r="C62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="14">
+      <c r="D62" s="11">
         <v>0</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -10930,7 +10938,7 @@
       <c r="C63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D63" s="11">
         <v>0</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -10959,7 +10967,7 @@
       <c r="C64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D64" s="14">
+      <c r="D64" s="11">
         <v>0</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -10986,7 +10994,7 @@
       <c r="C65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D65" s="11">
         <v>0</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -11013,7 +11021,7 @@
       <c r="C66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="14">
+      <c r="D66" s="11">
         <v>0</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -11038,7 +11046,7 @@
       <c r="C67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D67" s="11">
         <v>0</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -11063,7 +11071,7 @@
       <c r="C68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="14">
+      <c r="D68" s="11">
         <v>0</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -11090,7 +11098,7 @@
       <c r="C69" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D69" s="11">
         <v>0</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -11119,7 +11127,7 @@
       <c r="C70" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D70" s="11">
         <v>0</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -11144,7 +11152,7 @@
       <c r="C71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D71" s="11">
         <v>0</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -11169,7 +11177,7 @@
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="11">
         <v>0</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -11194,7 +11202,7 @@
       <c r="C73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="11">
         <v>0</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -11219,7 +11227,7 @@
       <c r="C74" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="14">
+      <c r="D74" s="11">
         <v>0</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -11242,7 +11250,7 @@
       <c r="C75" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D75" s="11">
         <v>0</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -11267,7 +11275,7 @@
       <c r="C76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="14">
+      <c r="D76" s="11">
         <v>0</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -11292,7 +11300,7 @@
       <c r="C77" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D77" s="11">
         <v>0</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -11317,7 +11325,7 @@
       <c r="C78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="14">
+      <c r="D78" s="11">
         <v>0</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -11342,7 +11350,7 @@
       <c r="C79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D79" s="11">
         <v>0</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -11367,7 +11375,7 @@
       <c r="C80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="14">
+      <c r="D80" s="11">
         <v>0</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -11392,7 +11400,7 @@
       <c r="C81" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D81" s="11">
         <v>0</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -11417,7 +11425,7 @@
       <c r="C82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="14">
+      <c r="D82" s="11">
         <v>0</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -11442,7 +11450,7 @@
       <c r="C83" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D83" s="11">
         <v>0</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -11467,7 +11475,7 @@
       <c r="C84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="14">
+      <c r="D84" s="11">
         <v>0</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -11494,7 +11502,7 @@
       <c r="C85" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D85" s="11">
         <v>0</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -11521,7 +11529,7 @@
       <c r="C86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="14">
+      <c r="D86" s="11">
         <v>0</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -11546,7 +11554,7 @@
       <c r="C87" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="14">
+      <c r="D87" s="11">
         <v>0</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -11571,7 +11579,7 @@
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D88" s="14">
+      <c r="D88" s="11">
         <v>0</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -11598,7 +11606,7 @@
       <c r="C89" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="14">
+      <c r="D89" s="11">
         <v>0</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -11625,7 +11633,7 @@
       <c r="C90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D90" s="14">
+      <c r="D90" s="11">
         <v>0</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -11652,7 +11660,7 @@
       <c r="C91" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="14">
+      <c r="D91" s="11">
         <v>0</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -11679,7 +11687,7 @@
       <c r="C92" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="14">
+      <c r="D92" s="11">
         <v>0</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -11706,7 +11714,7 @@
       <c r="C93" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D93" s="14">
+      <c r="D93" s="11">
         <v>0</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -11733,7 +11741,7 @@
       <c r="C94" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="14">
+      <c r="D94" s="11">
         <v>0</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -11760,7 +11768,7 @@
       <c r="C95" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="14">
+      <c r="D95" s="11">
         <v>0</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -11789,7 +11797,7 @@
       <c r="C96" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="14">
+      <c r="D96" s="11">
         <v>0</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -11818,7 +11826,7 @@
       <c r="C97" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D97" s="14">
+      <c r="D97" s="11">
         <v>0</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -11847,7 +11855,7 @@
       <c r="C98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="14">
+      <c r="D98" s="11">
         <v>0</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -11876,7 +11884,7 @@
       <c r="C99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="11">
         <v>0</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -11905,7 +11913,7 @@
       <c r="C100" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="14">
+      <c r="D100" s="11">
         <v>0</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -11934,7 +11942,7 @@
       <c r="C101" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="14">
+      <c r="D101" s="11">
         <v>0</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -11961,7 +11969,7 @@
       <c r="C102" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="14">
+      <c r="D102" s="11">
         <v>0</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -11988,7 +11996,7 @@
       <c r="C103" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="14">
+      <c r="D103" s="11">
         <v>0</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -12015,7 +12023,7 @@
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D104" s="14">
+      <c r="D104" s="11">
         <v>0</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -12042,7 +12050,7 @@
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="14">
+      <c r="D105" s="11">
         <v>0</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -12069,7 +12077,7 @@
       <c r="C106" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D106" s="14">
+      <c r="D106" s="11">
         <v>0</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -12098,7 +12106,7 @@
       <c r="C107" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="14">
+      <c r="D107" s="11">
         <v>0</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -12125,7 +12133,7 @@
       <c r="C108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D108" s="14">
+      <c r="D108" s="11">
         <v>0</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -12150,7 +12158,7 @@
       <c r="C109" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="14">
+      <c r="D109" s="11">
         <v>0</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -12177,7 +12185,7 @@
       <c r="C110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="14">
+      <c r="D110" s="11">
         <v>0</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -12202,7 +12210,7 @@
       <c r="C111" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D111" s="14">
+      <c r="D111" s="11">
         <v>0</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -12227,7 +12235,7 @@
       <c r="C112" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="14">
+      <c r="D112" s="11">
         <v>0</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -12252,7 +12260,7 @@
       <c r="C113" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="14">
+      <c r="D113" s="11">
         <v>0</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -12277,7 +12285,7 @@
       <c r="C114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="14">
+      <c r="D114" s="11">
         <v>0</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -12302,7 +12310,7 @@
       <c r="C115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="14">
+      <c r="D115" s="11">
         <v>0</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -12327,7 +12335,7 @@
       <c r="C116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D116" s="14">
+      <c r="D116" s="11">
         <v>0</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -12352,7 +12360,7 @@
       <c r="C117" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="14">
+      <c r="D117" s="11">
         <v>0</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -12377,7 +12385,7 @@
       <c r="C118" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="14">
+      <c r="D118" s="11">
         <v>0</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -12402,7 +12410,7 @@
       <c r="C119" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D119" s="14">
+      <c r="D119" s="11">
         <v>0</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -12427,7 +12435,7 @@
       <c r="C120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D120" s="14">
+      <c r="D120" s="11">
         <v>0</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -12452,7 +12460,7 @@
       <c r="C121" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="14">
+      <c r="D121" s="11">
         <v>0</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -12477,7 +12485,7 @@
       <c r="C122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D122" s="14">
+      <c r="D122" s="11">
         <v>0</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -12502,7 +12510,7 @@
       <c r="C123" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="14">
+      <c r="D123" s="11">
         <v>0</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -12527,7 +12535,7 @@
       <c r="C124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D124" s="14">
+      <c r="D124" s="11">
         <v>0</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -12552,7 +12560,7 @@
       <c r="C125" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D125" s="14">
+      <c r="D125" s="11">
         <v>0</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -12577,7 +12585,7 @@
       <c r="C126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D126" s="14">
+      <c r="D126" s="11">
         <v>0</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -12602,7 +12610,7 @@
       <c r="C127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D127" s="14">
+      <c r="D127" s="11">
         <v>0</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -12627,7 +12635,7 @@
       <c r="C128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D128" s="14">
+      <c r="D128" s="11">
         <v>0</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -12652,7 +12660,7 @@
       <c r="C129" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="14">
+      <c r="D129" s="11">
         <v>0</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -12677,7 +12685,7 @@
       <c r="C130" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="14">
+      <c r="D130" s="11">
         <v>0</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -12702,7 +12710,7 @@
       <c r="C131" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D131" s="14">
+      <c r="D131" s="11">
         <v>0</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -12727,7 +12735,7 @@
       <c r="C132" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="14">
+      <c r="D132" s="11">
         <v>0</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -12752,7 +12760,7 @@
       <c r="C133" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D133" s="14">
+      <c r="D133" s="11">
         <v>0</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -12777,7 +12785,7 @@
       <c r="C134" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D134" s="14">
+      <c r="D134" s="11">
         <v>0</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -12802,7 +12810,7 @@
       <c r="C135" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D135" s="14">
+      <c r="D135" s="11">
         <v>0</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -12827,7 +12835,7 @@
       <c r="C136" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D136" s="14">
+      <c r="D136" s="11">
         <v>0</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -12852,7 +12860,7 @@
       <c r="C137" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D137" s="14">
+      <c r="D137" s="11">
         <v>0</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -12877,7 +12885,7 @@
       <c r="C138" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D138" s="14">
+      <c r="D138" s="11">
         <v>0</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -12902,7 +12910,7 @@
       <c r="C139" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D139" s="14">
+      <c r="D139" s="11">
         <v>0</v>
       </c>
       <c r="E139" s="2" t="s">
@@ -12927,7 +12935,7 @@
       <c r="C140" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D140" s="14">
+      <c r="D140" s="11">
         <v>0</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -12952,7 +12960,7 @@
       <c r="C141" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D141" s="14">
+      <c r="D141" s="11">
         <v>0</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -12981,7 +12989,7 @@
       <c r="C142" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D142" s="14">
+      <c r="D142" s="11">
         <v>0</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -13006,7 +13014,7 @@
       <c r="C143" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="14">
+      <c r="D143" s="11">
         <v>0</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -13033,7 +13041,7 @@
       <c r="C144" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D144" s="14">
+      <c r="D144" s="11">
         <v>0</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -13060,7 +13068,7 @@
       <c r="C145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D145" s="14">
+      <c r="D145" s="11">
         <v>0</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -13085,7 +13093,7 @@
       <c r="C146" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="14">
+      <c r="D146" s="11">
         <v>0</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -13112,7 +13120,7 @@
       <c r="C147" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D147" s="14">
+      <c r="D147" s="11">
         <v>0</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -13137,7 +13145,7 @@
       <c r="C148" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D148" s="14">
+      <c r="D148" s="11">
         <v>0</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -13166,7 +13174,7 @@
       <c r="C149" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D149" s="14">
+      <c r="D149" s="11">
         <v>0</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -13195,7 +13203,7 @@
       <c r="C150" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D150" s="14">
+      <c r="D150" s="11">
         <v>0</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -13222,7 +13230,7 @@
       <c r="C151" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D151" s="14">
+      <c r="D151" s="11">
         <v>0</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -13251,7 +13259,7 @@
       <c r="C152" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D152" s="14">
+      <c r="D152" s="11">
         <v>0</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -13278,7 +13286,7 @@
       <c r="C153" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="14">
+      <c r="D153" s="11">
         <v>0</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -13307,7 +13315,7 @@
       <c r="C154" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D154" s="14">
+      <c r="D154" s="11">
         <v>0</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -13336,7 +13344,7 @@
       <c r="C155" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D155" s="14">
+      <c r="D155" s="11">
         <v>0</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -13365,7 +13373,7 @@
       <c r="C156" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="14">
+      <c r="D156" s="11">
         <v>0</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -13390,7 +13398,7 @@
       <c r="C157" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D157" s="14">
+      <c r="D157" s="11">
         <v>0</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -13415,7 +13423,7 @@
       <c r="C158" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D158" s="14">
+      <c r="D158" s="11">
         <v>0</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -13440,7 +13448,7 @@
       <c r="C159" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="14">
+      <c r="D159" s="11">
         <v>0</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -13465,7 +13473,7 @@
       <c r="C160" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D160" s="14">
+      <c r="D160" s="11">
         <v>0</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -13492,7 +13500,7 @@
       <c r="C161" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D161" s="14">
+      <c r="D161" s="11">
         <v>0</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -13517,7 +13525,7 @@
       <c r="C162" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D162" s="14">
+      <c r="D162" s="11">
         <v>0</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -13544,7 +13552,7 @@
       <c r="C163" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D163" s="14">
+      <c r="D163" s="11">
         <v>0</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -13569,7 +13577,7 @@
       <c r="C164" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="14">
+      <c r="D164" s="11">
         <v>0</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -13594,7 +13602,7 @@
       <c r="C165" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="14">
+      <c r="D165" s="11">
         <v>0</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -13621,7 +13629,7 @@
       <c r="C166" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="14">
+      <c r="D166" s="11">
         <v>0</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -13650,7 +13658,7 @@
       <c r="C167" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D167" s="14">
+      <c r="D167" s="11">
         <v>0</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -13679,7 +13687,7 @@
       <c r="C168" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D168" s="14">
+      <c r="D168" s="11">
         <v>0</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -13706,7 +13714,7 @@
       <c r="C169" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D169" s="14">
+      <c r="D169" s="11">
         <v>0</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -13733,7 +13741,7 @@
       <c r="C170" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D170" s="14">
+      <c r="D170" s="11">
         <v>0</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -13760,7 +13768,7 @@
       <c r="C171" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D171" s="14">
+      <c r="D171" s="11">
         <v>0</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -13787,7 +13795,7 @@
       <c r="C172" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D172" s="14">
+      <c r="D172" s="11">
         <v>0</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -13816,7 +13824,7 @@
       <c r="C173" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D173" s="14">
+      <c r="D173" s="11">
         <v>0</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -13843,7 +13851,7 @@
       <c r="C174" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D174" s="14">
+      <c r="D174" s="11">
         <v>0</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -13868,7 +13876,7 @@
       <c r="C175" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="14">
+      <c r="D175" s="11">
         <v>0</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -13893,7 +13901,7 @@
       <c r="C176" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D176" s="14">
+      <c r="D176" s="11">
         <v>0</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -13918,7 +13926,7 @@
       <c r="C177" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D177" s="14">
+      <c r="D177" s="11">
         <v>0</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -13943,7 +13951,7 @@
       <c r="C178" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D178" s="14">
+      <c r="D178" s="11">
         <v>0</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -13968,7 +13976,7 @@
       <c r="C179" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D179" s="14">
+      <c r="D179" s="11">
         <v>0</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -13995,7 +14003,7 @@
       <c r="C180" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D180" s="14">
+      <c r="D180" s="11">
         <v>0</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -14020,7 +14028,7 @@
       <c r="C181" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D181" s="14">
+      <c r="D181" s="11">
         <v>0</v>
       </c>
       <c r="E181" s="2" t="s">
@@ -14045,7 +14053,7 @@
       <c r="C182" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D182" s="14">
+      <c r="D182" s="11">
         <v>0</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -14072,7 +14080,7 @@
       <c r="C183" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="14">
+      <c r="D183" s="11">
         <v>0</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -14097,7 +14105,7 @@
       <c r="C184" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D184" s="14">
+      <c r="D184" s="11">
         <v>0</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -14122,7 +14130,7 @@
       <c r="C185" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D185" s="14">
+      <c r="D185" s="11">
         <v>0</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -14147,7 +14155,7 @@
       <c r="C186" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D186" s="14">
+      <c r="D186" s="11">
         <v>0</v>
       </c>
       <c r="E186" s="2" t="s">
@@ -14172,7 +14180,7 @@
       <c r="C187" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D187" s="14">
+      <c r="D187" s="11">
         <v>0</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -14199,7 +14207,7 @@
       <c r="C188" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D188" s="14">
+      <c r="D188" s="11">
         <v>0</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -14226,7 +14234,7 @@
       <c r="C189" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D189" s="14">
+      <c r="D189" s="11">
         <v>0</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -14251,7 +14259,7 @@
       <c r="C190" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D190" s="14">
+      <c r="D190" s="11">
         <v>0</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -14276,7 +14284,7 @@
       <c r="C191" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D191" s="14">
+      <c r="D191" s="11">
         <v>0</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -14303,7 +14311,7 @@
       <c r="C192" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D192" s="14">
+      <c r="D192" s="11">
         <v>0</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -14328,7 +14336,7 @@
       <c r="C193" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D193" s="14">
+      <c r="D193" s="11">
         <v>0</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -14355,7 +14363,7 @@
       <c r="C194" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D194" s="14">
+      <c r="D194" s="11">
         <v>0</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -14380,7 +14388,7 @@
       <c r="C195" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D195" s="14">
+      <c r="D195" s="11">
         <v>0</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -14405,7 +14413,7 @@
       <c r="C196" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D196" s="14">
+      <c r="D196" s="11">
         <v>0</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -14430,7 +14438,7 @@
       <c r="C197" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D197" s="14">
+      <c r="D197" s="11">
         <v>0</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -14455,7 +14463,7 @@
       <c r="C198" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D198" s="14">
+      <c r="D198" s="11">
         <v>0</v>
       </c>
       <c r="E198" s="2" t="s">
@@ -14480,7 +14488,7 @@
       <c r="C199" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D199" s="14">
+      <c r="D199" s="11">
         <v>0</v>
       </c>
       <c r="E199" s="2" t="s">
@@ -14507,7 +14515,7 @@
       <c r="C200" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D200" s="14">
+      <c r="D200" s="11">
         <v>0</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -14532,7 +14540,7 @@
       <c r="C201" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D201" s="14">
+      <c r="D201" s="11">
         <v>0</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -14557,7 +14565,7 @@
       <c r="C202" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D202" s="14">
+      <c r="D202" s="11">
         <v>0</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -14582,7 +14590,7 @@
       <c r="C203" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="14">
+      <c r="D203" s="11">
         <v>0</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -14611,7 +14619,7 @@
       <c r="C204" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="14">
+      <c r="D204" s="11">
         <v>0</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -14640,7 +14648,7 @@
       <c r="C205" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D205" s="14">
+      <c r="D205" s="11">
         <v>0</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -14665,7 +14673,7 @@
       <c r="C206" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D206" s="14">
+      <c r="D206" s="11">
         <v>0</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -14690,7 +14698,7 @@
       <c r="C207" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D207" s="14">
+      <c r="D207" s="11">
         <v>0</v>
       </c>
       <c r="E207" s="2" t="s">
@@ -14715,7 +14723,7 @@
       <c r="C208" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D208" s="14">
+      <c r="D208" s="11">
         <v>0</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -14740,7 +14748,7 @@
       <c r="C209" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D209" s="14">
+      <c r="D209" s="11">
         <v>0</v>
       </c>
       <c r="E209" s="2" t="s">
@@ -14767,7 +14775,7 @@
       <c r="C210" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D210" s="14">
+      <c r="D210" s="11">
         <v>0</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -14792,7 +14800,7 @@
       <c r="C211" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="14">
+      <c r="D211" s="11">
         <v>0</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -14821,7 +14829,7 @@
       <c r="C212" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D212" s="14">
+      <c r="D212" s="11">
         <v>0</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -14846,7 +14854,7 @@
       <c r="C213" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D213" s="14">
+      <c r="D213" s="11">
         <v>0</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -14873,7 +14881,7 @@
       <c r="C214" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="14">
+      <c r="D214" s="11">
         <v>0</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -14898,7 +14906,7 @@
       <c r="C215" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D215" s="14">
+      <c r="D215" s="11">
         <v>0</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -14923,7 +14931,7 @@
       <c r="C216" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D216" s="14">
+      <c r="D216" s="11">
         <v>0</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -14950,7 +14958,7 @@
       <c r="C217" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D217" s="14">
+      <c r="D217" s="11">
         <v>0</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -14975,7 +14983,7 @@
       <c r="C218" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D218" s="14">
+      <c r="D218" s="11">
         <v>0</v>
       </c>
       <c r="E218" s="2" t="s">
@@ -15000,7 +15008,7 @@
       <c r="C219" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D219" s="14">
+      <c r="D219" s="11">
         <v>0</v>
       </c>
       <c r="E219" s="2" t="s">
@@ -15027,7 +15035,7 @@
       <c r="C220" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D220" s="14">
+      <c r="D220" s="11">
         <v>0</v>
       </c>
       <c r="E220" s="2" t="s">
@@ -15052,7 +15060,7 @@
       <c r="C221" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D221" s="14">
+      <c r="D221" s="11">
         <v>0</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -15077,7 +15085,7 @@
       <c r="C222" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D222" s="14">
+      <c r="D222" s="11">
         <v>0</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -15102,7 +15110,7 @@
       <c r="C223" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D223" s="14">
+      <c r="D223" s="11">
         <v>0</v>
       </c>
       <c r="E223" s="2" t="s">
@@ -15127,7 +15135,7 @@
       <c r="C224" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D224" s="14">
+      <c r="D224" s="11">
         <v>0</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -15152,7 +15160,7 @@
       <c r="C225" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="14">
+      <c r="D225" s="11">
         <v>0</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -15177,7 +15185,7 @@
       <c r="C226" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D226" s="14">
+      <c r="D226" s="11">
         <v>0</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -15202,7 +15210,7 @@
       <c r="C227" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D227" s="14">
+      <c r="D227" s="11">
         <v>0</v>
       </c>
       <c r="E227" s="2" t="s">
@@ -15227,7 +15235,7 @@
       <c r="C228" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D228" s="14">
+      <c r="D228" s="11">
         <v>0</v>
       </c>
       <c r="E228" s="2" t="s">
@@ -15252,7 +15260,7 @@
       <c r="C229" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D229" s="14">
+      <c r="D229" s="11">
         <v>0</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -15277,7 +15285,7 @@
       <c r="C230" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D230" s="14">
+      <c r="D230" s="11">
         <v>0</v>
       </c>
       <c r="E230" s="2" t="s">
@@ -15302,7 +15310,7 @@
       <c r="C231" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D231" s="14">
+      <c r="D231" s="11">
         <v>0</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -15327,7 +15335,7 @@
       <c r="C232" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D232" s="14">
+      <c r="D232" s="11">
         <v>0</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -15352,7 +15360,7 @@
       <c r="C233" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D233" s="14">
+      <c r="D233" s="11">
         <v>0</v>
       </c>
       <c r="E233" s="2" t="s">
@@ -15377,7 +15385,7 @@
       <c r="C234" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D234" s="14">
+      <c r="D234" s="11">
         <v>0</v>
       </c>
       <c r="E234" s="2" t="s">
@@ -15402,7 +15410,7 @@
       <c r="C235" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D235" s="14">
+      <c r="D235" s="11">
         <v>0</v>
       </c>
       <c r="E235" s="2" t="s">
@@ -15427,7 +15435,7 @@
       <c r="C236" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D236" s="14">
+      <c r="D236" s="11">
         <v>0</v>
       </c>
       <c r="E236" s="2" t="s">
@@ -15436,8 +15444,8 @@
       <c r="F236" s="3">
         <v>33.4</v>
       </c>
-      <c r="G236" s="2" t="s">
-        <v>741</v>
+      <c r="G236" s="6" t="s">
+        <v>882</v>
       </c>
       <c r="H236" s="4"/>
       <c r="I236" s="4"/>
@@ -15452,7 +15460,7 @@
       <c r="C237" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D237" s="14">
+      <c r="D237" s="11">
         <v>0</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -15477,7 +15485,7 @@
       <c r="C238" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D238" s="14">
+      <c r="D238" s="11">
         <v>0</v>
       </c>
       <c r="E238" s="2" t="s">
@@ -15502,7 +15510,7 @@
       <c r="C239" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D239" s="14">
+      <c r="D239" s="11">
         <v>0</v>
       </c>
       <c r="E239" s="2" t="s">
@@ -15527,7 +15535,7 @@
       <c r="C240" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D240" s="14">
+      <c r="D240" s="11">
         <v>0</v>
       </c>
       <c r="E240" s="2" t="s">
@@ -15536,8 +15544,8 @@
       <c r="F240" s="3">
         <v>36.200000000000003</v>
       </c>
-      <c r="G240" s="2" t="s">
-        <v>68</v>
+      <c r="G240" s="6" t="s">
+        <v>881</v>
       </c>
       <c r="H240" s="4"/>
       <c r="I240" s="4"/>
@@ -15552,7 +15560,7 @@
       <c r="C241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D241" s="14">
+      <c r="D241" s="11">
         <v>0</v>
       </c>
       <c r="E241" s="2" t="s">
@@ -15577,7 +15585,7 @@
       <c r="C242" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D242" s="14">
+      <c r="D242" s="11">
         <v>0</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -15602,7 +15610,7 @@
       <c r="C243" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D243" s="14">
+      <c r="D243" s="11">
         <v>0</v>
       </c>
       <c r="E243" s="2" t="s">
@@ -15627,7 +15635,7 @@
       <c r="C244" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D244" s="14">
+      <c r="D244" s="11">
         <v>0</v>
       </c>
       <c r="E244" s="2" t="s">
@@ -15652,7 +15660,7 @@
       <c r="C245" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D245" s="14">
+      <c r="D245" s="11">
         <v>0</v>
       </c>
       <c r="E245" s="2" t="s">
@@ -15677,7 +15685,7 @@
       <c r="C246" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D246" s="14">
+      <c r="D246" s="11">
         <v>0</v>
       </c>
       <c r="E246" s="2" t="s">
@@ -15702,7 +15710,7 @@
       <c r="C247" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D247" s="14">
+      <c r="D247" s="11">
         <v>0</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -15727,7 +15735,7 @@
       <c r="C248" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D248" s="14">
+      <c r="D248" s="11">
         <v>0</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -15752,7 +15760,7 @@
       <c r="C249" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D249" s="14">
+      <c r="D249" s="11">
         <v>0</v>
       </c>
       <c r="E249" s="2" t="s">
@@ -15777,7 +15785,7 @@
       <c r="C250" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D250" s="14">
+      <c r="D250" s="11">
         <v>0</v>
       </c>
       <c r="E250" s="2" t="s">
@@ -15802,7 +15810,7 @@
       <c r="C251" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D251" s="14">
+      <c r="D251" s="11">
         <v>0</v>
       </c>
       <c r="E251" s="2" t="s">
@@ -15827,7 +15835,7 @@
       <c r="C252" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D252" s="14">
+      <c r="D252" s="11">
         <v>0</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -15852,7 +15860,7 @@
       <c r="C253" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D253" s="14">
+      <c r="D253" s="11">
         <v>0</v>
       </c>
       <c r="E253" s="2" t="s">
@@ -15877,7 +15885,7 @@
       <c r="C254" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D254" s="14">
+      <c r="D254" s="11">
         <v>0</v>
       </c>
       <c r="E254" s="2" t="s">
@@ -15902,7 +15910,7 @@
       <c r="C255" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D255" s="14">
+      <c r="D255" s="11">
         <v>0</v>
       </c>
       <c r="E255" s="2" t="s">
@@ -15927,7 +15935,7 @@
       <c r="C256" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D256" s="14">
+      <c r="D256" s="11">
         <v>0</v>
       </c>
       <c r="E256" s="2" t="s">
@@ -15952,7 +15960,7 @@
       <c r="C257" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D257" s="14">
+      <c r="D257" s="11">
         <v>0</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -15977,7 +15985,7 @@
       <c r="C258" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D258" s="14">
+      <c r="D258" s="11">
         <v>0</v>
       </c>
       <c r="E258" s="2" t="s">
@@ -16002,7 +16010,7 @@
       <c r="C259" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D259" s="14">
+      <c r="D259" s="11">
         <v>0</v>
       </c>
       <c r="E259" s="2" t="s">
@@ -16027,7 +16035,7 @@
       <c r="C260" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D260" s="14">
+      <c r="D260" s="11">
         <v>0</v>
       </c>
       <c r="E260" s="2" t="s">
@@ -16052,7 +16060,7 @@
       <c r="C261" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D261" s="14">
+      <c r="D261" s="11">
         <v>0</v>
       </c>
       <c r="E261" s="2" t="s">
@@ -16077,7 +16085,7 @@
       <c r="C262" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D262" s="14">
+      <c r="D262" s="11">
         <v>0</v>
       </c>
       <c r="E262" s="2" t="s">
@@ -16102,7 +16110,7 @@
       <c r="C263" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D263" s="14">
+      <c r="D263" s="11">
         <v>0</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -16127,7 +16135,7 @@
       <c r="C264" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D264" s="14">
+      <c r="D264" s="11">
         <v>0</v>
       </c>
       <c r="E264" s="2" t="s">
@@ -16152,7 +16160,7 @@
       <c r="C265" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D265" s="14">
+      <c r="D265" s="11">
         <v>0</v>
       </c>
       <c r="E265" s="2" t="s">
@@ -16177,7 +16185,7 @@
       <c r="C266" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D266" s="14">
+      <c r="D266" s="11">
         <v>0</v>
       </c>
       <c r="E266" s="2" t="s">
@@ -16202,7 +16210,7 @@
       <c r="C267" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D267" s="14">
+      <c r="D267" s="11">
         <v>0</v>
       </c>
       <c r="E267" s="2" t="s">
@@ -16227,7 +16235,7 @@
       <c r="C268" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D268" s="14">
+      <c r="D268" s="11">
         <v>0</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -16252,7 +16260,7 @@
       <c r="C269" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D269" s="14">
+      <c r="D269" s="11">
         <v>0</v>
       </c>
       <c r="E269" s="2" t="s">
@@ -16277,7 +16285,7 @@
       <c r="C270" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D270" s="14">
+      <c r="D270" s="11">
         <v>0</v>
       </c>
       <c r="E270" s="2" t="s">
@@ -16302,7 +16310,7 @@
       <c r="C271" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D271" s="14">
+      <c r="D271" s="11">
         <v>0</v>
       </c>
       <c r="E271" s="2" t="s">
@@ -16327,7 +16335,7 @@
       <c r="C272" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D272" s="14">
+      <c r="D272" s="11">
         <v>0</v>
       </c>
       <c r="E272" s="2" t="s">
@@ -16352,7 +16360,7 @@
       <c r="C273" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D273" s="14">
+      <c r="D273" s="11">
         <v>0</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -16377,7 +16385,7 @@
       <c r="C274" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D274" s="14">
+      <c r="D274" s="11">
         <v>0</v>
       </c>
       <c r="E274" s="2" t="s">
@@ -16402,7 +16410,7 @@
       <c r="C275" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D275" s="14">
+      <c r="D275" s="11">
         <v>0</v>
       </c>
       <c r="E275" s="2" t="s">
@@ -16427,7 +16435,7 @@
       <c r="C276" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D276" s="14">
+      <c r="D276" s="11">
         <v>0</v>
       </c>
       <c r="E276" s="2" t="s">
@@ -16452,7 +16460,7 @@
       <c r="C277" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D277" s="14">
+      <c r="D277" s="11">
         <v>0</v>
       </c>
       <c r="E277" s="2" t="s">
@@ -16477,7 +16485,7 @@
       <c r="C278" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D278" s="14">
+      <c r="D278" s="11">
         <v>0</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -16502,7 +16510,7 @@
       <c r="C279" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D279" s="14">
+      <c r="D279" s="11">
         <v>0</v>
       </c>
       <c r="E279" s="2" t="s">
@@ -16527,7 +16535,7 @@
       <c r="C280" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D280" s="14">
+      <c r="D280" s="11">
         <v>0</v>
       </c>
       <c r="E280" s="2" t="s">
@@ -16552,7 +16560,7 @@
       <c r="C281" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D281" s="14">
+      <c r="D281" s="11">
         <v>0</v>
       </c>
       <c r="E281" s="2" t="s">
@@ -16577,7 +16585,7 @@
       <c r="C282" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D282" s="14">
+      <c r="D282" s="11">
         <v>0</v>
       </c>
       <c r="E282" s="2" t="s">
@@ -16602,7 +16610,7 @@
       <c r="C283" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D283" s="14">
+      <c r="D283" s="11">
         <v>0</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -16627,7 +16635,7 @@
       <c r="C284" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D284" s="14">
+      <c r="D284" s="11">
         <v>0</v>
       </c>
       <c r="E284" s="2" t="s">
@@ -16652,7 +16660,7 @@
       <c r="C285" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D285" s="14">
+      <c r="D285" s="11">
         <v>0</v>
       </c>
       <c r="E285" s="2" t="s">
@@ -16677,7 +16685,7 @@
       <c r="C286" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D286" s="14">
+      <c r="D286" s="11">
         <v>0</v>
       </c>
       <c r="E286" s="2" t="s">
@@ -16704,7 +16712,7 @@
       <c r="C287" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D287" s="14">
+      <c r="D287" s="11">
         <v>0</v>
       </c>
       <c r="E287" s="2" t="s">
@@ -16729,7 +16737,7 @@
       <c r="C288" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D288" s="14">
+      <c r="D288" s="11">
         <v>0</v>
       </c>
       <c r="E288" s="2" t="s">
@@ -16756,7 +16764,7 @@
       <c r="C289" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D289" s="14">
+      <c r="D289" s="11">
         <v>0</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -16781,7 +16789,7 @@
       <c r="C290" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D290" s="14">
+      <c r="D290" s="11">
         <v>0</v>
       </c>
       <c r="E290" s="2" t="s">
@@ -16808,7 +16816,7 @@
       <c r="C291" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D291" s="14">
+      <c r="D291" s="11">
         <v>0</v>
       </c>
       <c r="E291" s="2" t="s">
@@ -16835,7 +16843,7 @@
       <c r="C292" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D292" s="14">
+      <c r="D292" s="11">
         <v>0</v>
       </c>
       <c r="E292" s="2" t="s">
@@ -16862,7 +16870,7 @@
       <c r="C293" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D293" s="14">
+      <c r="D293" s="11">
         <v>0</v>
       </c>
       <c r="E293" s="2" t="s">
@@ -16889,7 +16897,7 @@
       <c r="C294" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D294" s="14">
+      <c r="D294" s="11">
         <v>0</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -16916,7 +16924,7 @@
       <c r="C295" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D295" s="14">
+      <c r="D295" s="11">
         <v>0</v>
       </c>
       <c r="E295" s="2" t="s">
@@ -16943,7 +16951,7 @@
       <c r="C296" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D296" s="14">
+      <c r="D296" s="11">
         <v>0</v>
       </c>
       <c r="E296" s="2" t="s">
@@ -16970,7 +16978,7 @@
       <c r="C297" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D297" s="14">
+      <c r="D297" s="11">
         <v>0</v>
       </c>
       <c r="E297" s="2" t="s">
@@ -16989,12 +16997,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="C7:C8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="E1:E2"/>
@@ -17002,6 +17004,12 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
